--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_season_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01625879376546</v>
+        <v>1.01625880150643</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0107212116539193</v>
+        <v>0.0107212117004818</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52876912778871</v>
+        <v>1.52876985481792</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.930190130174711</v>
+        <v>0.930190125825495</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012690643152109</v>
+        <v>0.0126906429838</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.30425383485198</v>
+        <v>-5.3042542231091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0000214956114079919</v>
+        <v>0.0000214955656621724</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13387551677776</v>
+        <v>1.13387551258589</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0119048325028795</v>
+        <v>0.0119048323973489</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9667149014744</v>
+        <v>11.9667146111977</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000000000000000000000000100869607622029</v>
+        <v>0.00000000000000000000000000000100869960422941</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.915308320952535</v>
+        <v>0.915308309700883</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00901580940824397</v>
+        <v>0.00901580920057436</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.98417130456055</v>
+        <v>-8.98417264905264</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0000000000000000495313608602641</v>
+        <v>0.0000000000000000495307553281171</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11573501133162</v>
+        <v>1.11573499870811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00514952317019699</v>
+        <v>0.00514952310872609</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>23.7280074676589</v>
+        <v>23.7280050310514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352196984945726</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352217384140132</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21897177791469</v>
+        <v>1.21897177910766</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0119489607416794</v>
+        <v>0.011948960598532</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>20.1997312882921</v>
+        <v>20.1997316498911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187019662795489</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187018293439452</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.726619688342744</v>
+        <v>0.726619684085851</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0449491169683447</v>
+        <v>0.0449491158999858</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.16244838961794</v>
+        <v>-5.16244857678054</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0000463107118020511</v>
+        <v>0.0000463106654841478</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.839808812632346</v>
+        <v>0.839808813116561</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0251366877035206</v>
+        <v>0.0251366876083203</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.83269674884197</v>
+        <v>-5.83269675503193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00000103623408459405</v>
+        <v>0.00000103623404613874</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.606046188873898</v>
+        <v>0.606046180564875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0341922173166168</v>
+        <v>0.0341922156390743</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-8.87650452517804</v>
+        <v>-8.87650508198854</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000000000000000131089224880828</v>
+        <v>0.000000000000000131088568943449</v>
       </c>
     </row>
     <row r="11">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.871517990990126</v>
+        <v>0.871517981218453</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0190938235207017</v>
+        <v>0.0190938228899375</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-6.27690323442546</v>
+        <v>-6.27690388317611</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0000000656227478289908</v>
+        <v>0.0000000656224741290008</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.714994736380544</v>
+        <v>0.714994726745552</v>
       </c>
       <c r="H12" t="n">
-        <v>0.043710966137635</v>
+        <v>0.0437109647536146</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.48755896838317</v>
+        <v>-5.48755928861262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00000774299390650114</v>
+        <v>0.00000774297987404163</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.82637298470075</v>
+        <v>0.826372978882631</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0234703974874912</v>
+        <v>0.0234703972247593</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-6.7147055621509</v>
+        <v>-6.71470583793312</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00000000358048058312808</v>
+        <v>0.00000000358047381165625</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.596350253096817</v>
+        <v>0.596350240378254</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0331684601071898</v>
+        <v>0.0331684581992895</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.29405865716542</v>
+        <v>-9.29405937700988</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00000000000000000282177587108221</v>
+        <v>0.00000000000000000282175677892252</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.857574858231695</v>
+        <v>0.8575748420841</v>
       </c>
       <c r="H15" t="n">
-        <v>0.016951462424696</v>
+        <v>0.0169514616754949</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.77299528282095</v>
+        <v>-7.7729964325805</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00000000000145638034390665</v>
+        <v>0.00000000000145636711936438</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.781151793350321</v>
+        <v>0.781151792426321</v>
       </c>
       <c r="H16" t="n">
-        <v>0.048235010456106</v>
+        <v>0.0482350095234646</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.99986215894557</v>
+        <v>-3.99986225070925</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0120420838032279</v>
+        <v>0.0120420791339685</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.902835651970002</v>
+        <v>0.902835656711873</v>
       </c>
       <c r="H17" t="n">
-        <v>0.026809136948308</v>
+        <v>0.0268091369497257</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.44222626633077</v>
+        <v>-3.44222610735283</v>
       </c>
       <c r="L17" t="n">
-        <v>0.109620015189566</v>
+        <v>0.109620079616874</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.651529369334491</v>
+        <v>0.651529363448188</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0366791646055211</v>
+        <v>0.0366791629639856</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-7.61022115717991</v>
+        <v>-7.61022158949256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00000000000519891870661564</v>
+        <v>0.0000000000051989013163097</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.936924573502447</v>
+        <v>0.936924567378122</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0202264265274509</v>
+        <v>0.0202264259112412</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.01798126203101</v>
+        <v>-3.0179816370364</v>
       </c>
       <c r="L19" t="n">
-        <v>0.483482812658537</v>
+        <v>0.483482214373611</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.640828448618103</v>
+        <v>0.640828447232926</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0391705585515855</v>
+        <v>0.0391705577520934</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-7.28007201276288</v>
+        <v>-7.28007218097959</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0000000000633919855112467</v>
+        <v>0.0000000000633919064654951</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.740653449347692</v>
+        <v>0.740653452512891</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0210181438488074</v>
+        <v>0.0210181438457883</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-10.5794683589785</v>
+        <v>-10.5794682551161</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00000000000000000000000705009536089676</v>
+        <v>0.00000000000000000000000705010317563934</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.534490938296431</v>
+        <v>0.534490932944431</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0297232087085557</v>
+        <v>0.0297232073328289</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-11.2648259186171</v>
+        <v>-11.2648265072687</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00000000000000000000000000371902934984304</v>
+        <v>0.0000000000000000000000000037190044974349</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.768618757610005</v>
+        <v>0.768618751833605</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0151693959256877</v>
+        <v>0.0151693954175115</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.3340750073686</v>
+        <v>-13.3340757346448</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000000000000000000000000000000000000027865880104731</v>
+        <v>0.0000000000000000000000000000000000000278656083719094</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00067511702733</v>
+        <v>1.00067511931239</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0210583266285398</v>
+        <v>0.0210583266341395</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0320702057422838</v>
+        <v>0.0320703143180832</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.00081097562515</v>
+        <v>1.00081098638462</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0120590088441813</v>
+        <v>0.0120590089769376</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.067277865661245</v>
+        <v>0.0672787578788456</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.799829293081469</v>
+        <v>0.799829290982754</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0157091284858256</v>
+        <v>0.0157091283002679</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.3722055153302</v>
+        <v>-11.372205753418</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00000000000000000000000000109279709843517</v>
+        <v>0.00000000000000000000000000109279411706177</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.13634908807419</v>
+        <v>1.13634908629487</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0137750665186787</v>
+        <v>0.0137750664247483</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>10.5443256297484</v>
+        <v>10.5443255559684</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000000000000000000000102521270436725</v>
+        <v>0.0000000000000000000000102521350899177</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.984665641435303</v>
+        <v>0.984665636183485</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0185192326766694</v>
+        <v>0.0185192325603276</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.821642124354071</v>
+        <v>-0.82164240872071</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.984799326475623</v>
+        <v>0.984799329561615</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00736868920538748</v>
+        <v>0.0073686893064859</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.04711489342463</v>
+        <v>-2.04711445295514</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.787033084474407</v>
+        <v>0.787033076414339</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0135550588648582</v>
+        <v>0.0135550585895484</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-13.9049645147017</v>
+        <v>-13.9049652493334</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000000000000000000000000000000000000000011228271289182</v>
+        <v>0.0000000000000000000000000000000000000000112281560054389</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.11816900876574</v>
+        <v>1.11816899849766</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00852522721791106</v>
+        <v>0.00852522710825289</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>14.6495954616617</v>
+        <v>14.649594311134</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000000000000000000000000000000000000000000000257488314195245</v>
+        <v>0.000000000000000000000000000000000000000000000257492674175079</v>
       </c>
     </row>
     <row r="32">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.07577481696068</v>
+        <v>1.07577482444715</v>
       </c>
       <c r="H32" t="n">
-        <v>0.022296893774688</v>
+        <v>0.0222968938480934</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.52407126254697</v>
+        <v>3.52407161123242</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0807442882814117</v>
+        <v>0.0807441820241456</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0759208716149</v>
+        <v>1.07592088821245</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0123516116425132</v>
+        <v>0.012351611772593</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>6.3742754746728</v>
+        <v>6.37427684963082</v>
       </c>
       <c r="L33" t="n">
-        <v>0.000000034927682573619</v>
+        <v>0.0000000349273692541111</v>
       </c>
     </row>
     <row r="34">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.859855708134898</v>
+        <v>0.859855709899035</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0165951862367442</v>
+        <v>0.0165951860825446</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.82336519537878</v>
+        <v>-7.82336517781891</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000000000000977162893723621</v>
+        <v>0.000000000000977163030090453</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.2216309883451</v>
+        <v>1.22163099214413</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0141362649303293</v>
+        <v>0.0141362648208708</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>17.2997924403198</v>
+        <v>17.2997928968157</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000896964556433649</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000896957449365243</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.88252643453405</v>
+        <v>0.88252643981197</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0165695902000858</v>
+        <v>0.0165695902736581</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.65594444650819</v>
+        <v>-6.65594413822962</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00000000534824481756194</v>
+        <v>0.00000000534825602917251</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.882646252446872</v>
+        <v>0.882646265199077</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00653159817932367</v>
+        <v>0.00653159831974576</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.8689830622818</v>
+        <v>-16.8689809909486</v>
       </c>
       <c r="L37" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000144580778523076</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000144585848080009</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.70539427057603</v>
+        <v>0.705394271332913</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0121234001228746</v>
+        <v>0.0121234000049042</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-20.3063049663385</v>
+        <v>-20.306305123292</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000214889392968706</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000214888706432772</v>
       </c>
     </row>
     <row r="39">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.002181519276</v>
+        <v>1.00218152141177</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00754756169856459</v>
+        <v>0.0075475616587873</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.289351335962455</v>
+        <v>0.289351621079145</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.03545824250144</v>
+        <v>1.03545824259088</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0303271693855823</v>
+        <v>0.0303271692804538</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.1896786118951</v>
+        <v>1.18967861907086</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.05190558299954</v>
+        <v>1.05190559161306</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0143112350736728</v>
+        <v>0.014311235212018</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.71945236946592</v>
+        <v>3.71945296583856</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0379344864734006</v>
+        <v>0.0379343969111114</v>
       </c>
     </row>
     <row r="42">
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.944116696041971</v>
+        <v>0.944116691297214</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0295318739457806</v>
+        <v>0.0295318734555013</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.83841717773324</v>
+        <v>-1.83841735968054</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.13442504244381</v>
+        <v>1.13442503825147</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0174136909660305</v>
+        <v>0.0174136907857061</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -2037,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>8.21654862175106</v>
+        <v>8.21654843572191</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0000000000000397942791546027</v>
+        <v>0.0000000000000397943408569745</v>
       </c>
     </row>
     <row r="44">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.01889228300288</v>
+        <v>1.01889227532985</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0282700173963</v>
+        <v>0.0282700170919593</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.674553134416889</v>
+        <v>0.674552865179672</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.03507648785208</v>
+        <v>1.03507648844349</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0102009859978735</v>
+        <v>0.0102009860910415</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.49815190702147</v>
+        <v>3.49815193504667</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0890138995931086</v>
+        <v>0.0890138902391143</v>
       </c>
     </row>
     <row r="46">
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.929012080223989</v>
+        <v>0.929012068478741</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0277206517989482</v>
+        <v>0.027720651113406</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.46770695280386</v>
+        <v>-2.46770740633294</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.11627574531534</v>
+        <v>1.11627573268726</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0135563178001748</v>
+        <v>0.013556317553872</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>9.05762233178066</v>
+        <v>9.0576214623542</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0000000000000000253317448636443</v>
+        <v>0.0000000000000000253319467259201</v>
       </c>
     </row>
     <row r="48">
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.11316838236819</v>
+        <v>1.11316838766909</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0323303499649442</v>
+        <v>0.0323303499761471</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2227,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.69136645773002</v>
+        <v>3.69136663798964</v>
       </c>
       <c r="L48" t="n">
-        <v>0.042379974696757</v>
+        <v>0.0423799446565314</v>
       </c>
     </row>
     <row r="49">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.13085007986697</v>
+        <v>1.13085009441436</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0148058479948745</v>
+        <v>0.0148058481502656</v>
       </c>
       <c r="I49" t="e">
         <v>#NUM!</v>
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>9.39224955657215</v>
+        <v>9.39225056136429</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00000000000000000111591231245097</v>
+        <v>0.00000000000000000111590166453162</v>
       </c>
     </row>
     <row r="50">
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.01497174116935</v>
+        <v>1.01497174081413</v>
       </c>
       <c r="H50" t="n">
-        <v>0.031512297949472</v>
+        <v>0.0315122975459504</v>
       </c>
       <c r="I50" t="e">
         <v>#NUM!</v>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.478646861403027</v>
+        <v>0.478646856092129</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.21956254495061</v>
+        <v>1.21956254614585</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0181458233700787</v>
+        <v>0.018145823203829</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2341,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>13.3404628607308</v>
+        <v>13.3404630618977</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0000000000000000000000000000000000000255780043958676</v>
+        <v>0.0000000000000000000000000000000000000255779353718377</v>
       </c>
     </row>
     <row r="52">
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.913202752136315</v>
+        <v>0.913202755591253</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0252913549682005</v>
+        <v>0.0252913549750446</v>
       </c>
       <c r="I52" t="e">
         <v>#NUM!</v>
@@ -2379,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.27844793455026</v>
+        <v>-3.27844780946103</v>
       </c>
       <c r="L52" t="n">
-        <v>0.198321273395906</v>
+        <v>0.198321361291513</v>
       </c>
     </row>
     <row r="53">
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9277081720477</v>
+        <v>0.927708183073921</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00903324765321292</v>
+        <v>0.00903324782001336</v>
       </c>
       <c r="I53" t="e">
         <v>#NUM!</v>
@@ -2417,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.70635647164489</v>
+        <v>-7.70635520031269</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0000000000024597530799547</v>
+        <v>0.00000000000245977757226063</v>
       </c>
     </row>
     <row r="54">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.832645808179149</v>
+        <v>0.832645807072848</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0248079077606573</v>
+        <v>0.0248079074209011</v>
       </c>
       <c r="I54" t="e">
         <v>#NUM!</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.14709321471595</v>
+        <v>-6.14709333533066</v>
       </c>
       <c r="L54" t="n">
-        <v>0.000000149939937801508</v>
+        <v>0.000000149939823827927</v>
       </c>
     </row>
     <row r="55">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.0004846437355</v>
+        <v>1.00048464373689</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0120403284397567</v>
+        <v>0.01204032833883</v>
       </c>
       <c r="I55" t="e">
         <v>#NUM!</v>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0402614562163964</v>
+        <v>0.040261456669091</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.92615055666637</v>
+        <v>0.926150558179912</v>
       </c>
       <c r="H56" t="n">
-        <v>0.014845704739147</v>
+        <v>0.0148457047152569</v>
       </c>
       <c r="I56" t="e">
         <v>#NUM!</v>
@@ -2531,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.78608825597902</v>
+        <v>-4.78608816955106</v>
       </c>
       <c r="L56" t="n">
-        <v>0.000323120264673409</v>
+        <v>0.000323120403743649</v>
       </c>
     </row>
     <row r="57">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.975662673707748</v>
+        <v>0.975662686467827</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0107665719435221</v>
+        <v>0.0107665720718593</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.23272008040715</v>
+        <v>-2.23271889783653</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.909094876307642</v>
+        <v>0.909094875057516</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0147794700635922</v>
+        <v>0.0147794699477389</v>
       </c>
       <c r="I58" t="e">
         <v>#NUM!</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.86232310914293</v>
+        <v>-5.86232323162035</v>
       </c>
       <c r="L58" t="n">
-        <v>0.000000867227918775206</v>
+        <v>0.000000867227278912596</v>
       </c>
     </row>
     <row r="59">
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.06446673844307</v>
+        <v>1.06446673444094</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0117786470474549</v>
+        <v>0.011778646939441</v>
       </c>
       <c r="I59" t="e">
         <v>#NUM!</v>
@@ -2645,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>5.64593291325485</v>
+        <v>5.64593260402389</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00000312147019000036</v>
+        <v>0.00000312147580138822</v>
       </c>
     </row>
     <row r="60">
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.911333375266336</v>
+        <v>0.911333369813922</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0117892880840411</v>
+        <v>0.0117892879941786</v>
       </c>
       <c r="I60" t="e">
         <v>#NUM!</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.17720337233422</v>
+        <v>-7.17720384659003</v>
       </c>
       <c r="L60" t="n">
-        <v>0.000000000135188438151655</v>
+        <v>0.000000000135187969378211</v>
       </c>
     </row>
     <row r="61">
@@ -2709,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.960053364057699</v>
+        <v>0.960053369300786</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00545347168343624</v>
+        <v>0.00545347178331782</v>
       </c>
       <c r="I61" t="e">
         <v>#NUM!</v>
@@ -2721,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.17669952238466</v>
+        <v>-7.17669846871363</v>
       </c>
       <c r="L61" t="n">
-        <v>0.000000000135687366031764</v>
+        <v>0.000000000135688411301114</v>
       </c>
     </row>
     <row r="62">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.894550563187994</v>
+        <v>0.894550555143964</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0118257894523914</v>
+        <v>0.0118257892683588</v>
       </c>
       <c r="I62" t="e">
         <v>#NUM!</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.42930735871295</v>
+        <v>-8.42930809430188</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00000000000000660662649554245</v>
+        <v>0.00000000000000660658496990899</v>
       </c>
     </row>
     <row r="63">
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.04743668145688</v>
+        <v>1.04743666954032</v>
       </c>
       <c r="H63" t="n">
-        <v>0.00600182570671319</v>
+        <v>0.00600182561951032</v>
       </c>
       <c r="I63" t="e">
         <v>#NUM!</v>
@@ -2797,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>8.08827561507697</v>
+        <v>8.08827365508613</v>
       </c>
       <c r="L63" t="n">
-        <v>0.000000000000114979157123022</v>
+        <v>0.000000000000114981006965243</v>
       </c>
     </row>
     <row r="64">
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.995657260405911</v>
+        <v>0.995657266688357</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0155082826793382</v>
+        <v>0.0155082826805821</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.279418186406875</v>
+        <v>-0.279417783044942</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -2861,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.04888521395566</v>
+        <v>1.04888523257756</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0108772432719056</v>
+        <v>0.0108772433821807</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2873,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>4.60236904538317</v>
+        <v>4.6023707924394</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000793653185563503</v>
+        <v>0.000793646526254162</v>
       </c>
     </row>
     <row r="66">
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.977321567728195</v>
+        <v>0.977321570953832</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0154522597067788</v>
+        <v>0.0154522596102532</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.45087584225392</v>
+        <v>-1.45087564735713</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.14435393788057</v>
+        <v>1.14435393892864</v>
       </c>
       <c r="H67" t="n">
-        <v>0.011913315862052</v>
+        <v>0.0119133157257259</v>
       </c>
       <c r="I67" t="e">
         <v>#NUM!</v>
@@ -2949,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>12.9523091250204</v>
+        <v>12.9523093730735</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0000000000000000000000000000000000043318368056112</v>
+        <v>0.00000000000000000000000000000000000433182280604434</v>
       </c>
     </row>
     <row r="68">
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.816800912412587</v>
+        <v>0.816800916767095</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0105630219884541</v>
+        <v>0.0105630220142183</v>
       </c>
       <c r="I68" t="e">
         <v>#NUM!</v>
@@ -2987,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>-15.6477707907323</v>
+        <v>-15.6477704237462</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000653717829191897</v>
+        <v>0.0000000000000000000000000000000000000000000000000000653721598395805</v>
       </c>
     </row>
     <row r="69">
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.860467184687414</v>
+        <v>0.860467199122024</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00486024525573397</v>
+        <v>0.00486024536890536</v>
       </c>
       <c r="I69" t="e">
         <v>#NUM!</v>
@@ -3025,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.6058252107955</v>
+        <v>-26.6058220676624</v>
       </c>
       <c r="L69" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110433843586856</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110443092085268</v>
       </c>
     </row>
     <row r="70">
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.801758978702618</v>
+        <v>0.801758980564152</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0105936750158258</v>
+        <v>0.0105936749579355</v>
       </c>
       <c r="I70" t="e">
         <v>#NUM!</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.7219057126456</v>
+        <v>-16.721905667128</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000172462314108032</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000172462445842316</v>
       </c>
     </row>
     <row r="71">
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.938786244779374</v>
+        <v>0.938786244720412</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00536088610399944</v>
+        <v>0.00536088605264965</v>
       </c>
       <c r="I71" t="e">
         <v>#NUM!</v>
@@ -3101,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.0617439011915</v>
+        <v>-11.0617440174514</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0000000000000000000000000365410632863837</v>
+        <v>0.0000000000000000000000000365410159152258</v>
       </c>
     </row>
     <row r="72">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.15577492064351</v>
+        <v>1.155774928081</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0775617195725008</v>
+        <v>0.0775617188397881</v>
       </c>
       <c r="I72" t="e">
         <v>#NUM!</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2.157285128362</v>
+        <v>2.157285258515</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.834062438159572</v>
+        <v>0.834062431610743</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0687158477150181</v>
+        <v>0.0687158453534238</v>
       </c>
       <c r="I73" t="e">
         <v>#NUM!</v>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.20237606798777</v>
+        <v>-2.20237622168859</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.19941422586259</v>
+        <v>1.19941421944121</v>
       </c>
       <c r="H74" t="n">
-        <v>0.076667042731442</v>
+        <v>0.0766670408566096</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3215,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.8446830605074</v>
+        <v>2.84468303108554</v>
       </c>
       <c r="L74" t="n">
-        <v>0.844657021444029</v>
+        <v>0.844657099455799</v>
       </c>
     </row>
     <row r="75">
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.721647808117505</v>
+        <v>0.721647797807475</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0448493134035949</v>
+        <v>0.0448493114217262</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3253,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.24901118292804</v>
+        <v>-5.24901156976929</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0000290543807894354</v>
+        <v>0.0000290543197852686</v>
       </c>
     </row>
     <row r="76">
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.03775761563919</v>
+        <v>1.03775760340525</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0353136794227509</v>
+        <v>0.0353136785963111</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1.08914248582462</v>
+        <v>1.08914215203765</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.43803889371783</v>
+        <v>1.43803889731001</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0843960764462103</v>
+        <v>0.0843960736685838</v>
       </c>
       <c r="I77" t="e">
         <v>#NUM!</v>
@@ -3329,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>6.18999403033012</v>
+        <v>6.18999429207967</v>
       </c>
       <c r="L77" t="n">
-        <v>0.000000114316337834729</v>
+        <v>0.000000114316148006892</v>
       </c>
     </row>
     <row r="78">
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.37716488154849</v>
+        <v>1.37716489276137</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0877918311524591</v>
+        <v>0.0877918303875367</v>
       </c>
       <c r="I78" t="e">
         <v>#NUM!</v>
@@ -3367,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>5.02016957640252</v>
+        <v>5.0201697887384</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0000980891793888655</v>
+        <v>0.0000980890709587888</v>
       </c>
     </row>
     <row r="79">
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.37735185500929</v>
+        <v>1.37735187788606</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0844895812357163</v>
+        <v>0.0844895811219325</v>
       </c>
       <c r="I79" t="e">
         <v>#NUM!</v>
@@ -3405,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>5.21930273600746</v>
+        <v>5.2193031004894</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0000341236180286125</v>
+        <v>0.000034123550880319</v>
       </c>
     </row>
     <row r="80">
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.1007536761159</v>
+        <v>1.10075367967633</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0696515592859409</v>
+        <v>0.0696515582737192</v>
       </c>
       <c r="I80" t="e">
         <v>#NUM!</v>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1.51707967668669</v>
+        <v>1.5170797547586</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.56388425238786</v>
+        <v>1.56388425910109</v>
       </c>
       <c r="H81" t="n">
-        <v>0.096031121045031</v>
+        <v>0.0960311197159553</v>
       </c>
       <c r="I81" t="e">
         <v>#NUM!</v>
@@ -3481,10 +3481,10 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>7.28228755022891</v>
+        <v>7.2822877521834</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0000000000623592462881473</v>
+        <v>0.000000000062359152907492</v>
       </c>
     </row>
     <row r="82">
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.19155110303113</v>
+        <v>1.19155110506504</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0401866058598942</v>
+        <v>0.0401866057908501</v>
       </c>
       <c r="I82" t="e">
         <v>#NUM!</v>
@@ -3519,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>5.19641716421894</v>
+        <v>5.19641723262848</v>
       </c>
       <c r="L82" t="n">
-        <v>0.000038601553019945</v>
+        <v>0.0000386015388216138</v>
       </c>
     </row>
     <row r="83">
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.19171287627734</v>
+        <v>1.19171288840204</v>
       </c>
       <c r="H83" t="n">
-        <v>0.034487045979361</v>
+        <v>0.0344870462078827</v>
       </c>
       <c r="I83" t="e">
         <v>#NUM!</v>
@@ -3557,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>6.06072507722092</v>
+        <v>6.06072545029597</v>
       </c>
       <c r="L83" t="n">
-        <v>0.000000257467631736943</v>
+        <v>0.000000257467034491865</v>
       </c>
     </row>
     <row r="84">
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.952394498665043</v>
+        <v>0.952394495616876</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0312753123595128</v>
+        <v>0.0312753120696304</v>
       </c>
       <c r="I84" t="e">
         <v>#NUM!</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.48532289716278</v>
+        <v>-1.48532300363844</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.35310450543184</v>
+        <v>1.35310450253295</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0392976312852461</v>
+        <v>0.0392976310254127</v>
       </c>
       <c r="I85" t="e">
         <v>#NUM!</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>10.4123565485806</v>
+        <v>10.4123565213514</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0000000000000000000000413750168851418</v>
+        <v>0.000000000000000000000041375028722079</v>
       </c>
     </row>
     <row r="86">
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.65115322131915</v>
+        <v>1.65115324772726</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0965801322364623</v>
+        <v>0.0965801306080495</v>
       </c>
       <c r="I86" t="e">
         <v>#NUM!</v>
@@ -3671,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>8.57329903004947</v>
+        <v>8.57329958515282</v>
       </c>
       <c r="L86" t="n">
-        <v>0.00000000000000191067692098951</v>
+        <v>0.00000000000000191066770741743</v>
       </c>
     </row>
     <row r="87">
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1.65137739333824</v>
+        <v>1.65137743373252</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0922496211214959</v>
+        <v>0.0922496200830342</v>
       </c>
       <c r="I87" t="e">
         <v>#NUM!</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>8.97940769427502</v>
+        <v>8.97940845288217</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0000000000000000517233709711686</v>
+        <v>0.0000000000000000517230143733862</v>
       </c>
     </row>
     <row r="88">
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1.31974972826352</v>
+        <v>1.31974974289461</v>
       </c>
       <c r="H88" t="n">
-        <v>0.076517077677119</v>
+        <v>0.0765170759070737</v>
       </c>
       <c r="I88" t="e">
         <v>#NUM!</v>
@@ -3747,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>4.7852606508149</v>
+        <v>4.78526100577484</v>
       </c>
       <c r="L88" t="n">
-        <v>0.000324454595007213</v>
+        <v>0.000324454021579227</v>
       </c>
     </row>
     <row r="89">
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1.87502059898381</v>
+        <v>1.8750206217548</v>
       </c>
       <c r="H89" t="n">
-        <v>0.104867531592636</v>
+        <v>0.104867529101425</v>
       </c>
       <c r="I89" t="e">
         <v>#NUM!</v>
@@ -3785,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>11.239654126619</v>
+        <v>11.239654747265</v>
       </c>
       <c r="L89" t="n">
-        <v>0.00000000000000000000000000494761074826586</v>
+        <v>0.00000000000000000000000000494757596557188</v>
       </c>
     </row>
     <row r="90">
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.14819788848016</v>
+        <v>1.14819790397597</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0307921362309149</v>
+        <v>0.0307921361998753</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3823,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>5.1530581430272</v>
+        <v>5.1530587210053</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0000486917681576695</v>
+        <v>0.0000486916180251492</v>
       </c>
     </row>
     <row r="91">
@@ -3849,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1.14835377579313</v>
+        <v>1.14835380101442</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0234991291423466</v>
+        <v>0.0234991291255287</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3861,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>6.7598721602246</v>
+        <v>6.75987338681569</v>
       </c>
       <c r="L91" t="n">
-        <v>0.00000000262415747206069</v>
+        <v>0.00000000262413525640053</v>
       </c>
     </row>
     <row r="92">
@@ -3887,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.917742721722575</v>
+        <v>0.917742729604416</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0235731138720322</v>
+        <v>0.0235731136074498</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3899,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.34183137532057</v>
+        <v>-3.34183110717233</v>
       </c>
       <c r="L92" t="n">
-        <v>0.158132449909736</v>
+        <v>0.158132602667692</v>
       </c>
     </row>
     <row r="93">
@@ -3925,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1.30387335639875</v>
+        <v>1.30387336897646</v>
       </c>
       <c r="H93" t="n">
-        <v>0.02689653027606</v>
+        <v>0.026896529883833</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3937,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>12.8629563582347</v>
+        <v>12.8629571375276</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0000000000000000000000000000000000138206817144219</v>
+        <v>0.0000000000000000000000000000000000138205423489879</v>
       </c>
     </row>
     <row r="94">
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.42503466271756</v>
+        <v>1.42503467118919</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0954634963230204</v>
+        <v>0.0954634953872993</v>
       </c>
       <c r="I94" t="e">
         <v>#NUM!</v>
@@ -3975,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>5.28727517522152</v>
+        <v>5.28727534722096</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0000235888432700023</v>
+        <v>0.0000235888210978005</v>
       </c>
     </row>
     <row r="95">
@@ -4001,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1.44767008089018</v>
+        <v>1.44767010122558</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0894176906853248</v>
+        <v>0.0894176903630198</v>
       </c>
       <c r="I95" t="e">
         <v>#NUM!</v>
@@ -4013,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>5.98956865794415</v>
+        <v>5.98956899108915</v>
       </c>
       <c r="L95" t="n">
-        <v>0.000000399756766434265</v>
+        <v>0.000000399755947622881</v>
       </c>
     </row>
     <row r="96">
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1.29932715998281</v>
+        <v>1.299327161065</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0882036604947874</v>
+        <v>0.0882036590571167</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -4051,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>3.8572588354781</v>
+        <v>3.85725891383113</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0217864869574575</v>
+        <v>0.0217864799761626</v>
       </c>
     </row>
     <row r="97">
@@ -4077,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1.56123631198485</v>
+        <v>1.56123631536169</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0970617902173148</v>
+        <v>0.0970617886898815</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -4089,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>7.16550201443702</v>
+        <v>7.16550217748756</v>
       </c>
       <c r="L97" t="n">
-        <v>0.00000000014725383273452</v>
+        <v>0.000000000147253657460849</v>
       </c>
     </row>
     <row r="98">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1.23296901262067</v>
+        <v>1.23296901201626</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0486742692936928</v>
+        <v>0.0486742690808718</v>
       </c>
       <c r="I98" t="e">
         <v>#NUM!</v>
@@ -4127,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>5.30495173035145</v>
+        <v>5.30495173852867</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0000214135348384891</v>
+        <v>0.0000214135338785798</v>
       </c>
     </row>
     <row r="99">
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1.25255363741943</v>
+        <v>1.25255364695377</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0372829490239897</v>
+        <v>0.0372829491929659</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -4165,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>7.56526826122114</v>
+        <v>7.56526854024868</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00000000000735423454547934</v>
+        <v>0.00000000000735421875880681</v>
       </c>
     </row>
     <row r="100">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1.12420432107955</v>
+        <v>1.12420431478156</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0460660180158677</v>
+        <v>0.0460660173646944</v>
       </c>
       <c r="I100" t="e">
         <v>#NUM!</v>
@@ -4203,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2.85713430050159</v>
+        <v>2.85713418816613</v>
       </c>
       <c r="L100" t="n">
-        <v>0.812221348784352</v>
+        <v>0.812221636253141</v>
       </c>
     </row>
     <row r="101">
@@ -4229,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.35081345346686</v>
+        <v>1.350813447696</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0413255263496246</v>
+        <v>0.041325525971399</v>
       </c>
       <c r="I101" t="e">
         <v>#NUM!</v>
@@ -4241,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>9.82925216697086</v>
+        <v>9.82925207529572</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0000000000000000000160059794881104</v>
+        <v>0.0000000000000000000160059940574178</v>
       </c>
     </row>
     <row r="102">
@@ -4267,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.70854674364909</v>
+        <v>1.7085467672212</v>
       </c>
       <c r="H102" t="n">
-        <v>0.105958590844631</v>
+        <v>0.105958589148008</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4279,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>8.63706619011612</v>
+        <v>8.63706667004133</v>
       </c>
       <c r="L102" t="n">
-        <v>0.00000000000000109582446148757</v>
+        <v>0.0000000000000010958198597874</v>
       </c>
     </row>
     <row r="103">
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.73568550105743</v>
+        <v>1.73568553906671</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0977722187973885</v>
+        <v>0.0977722175083834</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4317,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>9.78868257920625</v>
+        <v>9.78868331137066</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0000000000000000000239259175934249</v>
+        <v>0.0000000000000000000239257443647416</v>
       </c>
     </row>
     <row r="104">
@@ -4343,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1.55782960667775</v>
+        <v>1.55782962020689</v>
       </c>
       <c r="H104" t="n">
-        <v>0.098121719140114</v>
+        <v>0.0981217169513705</v>
       </c>
       <c r="I104" t="e">
         <v>#NUM!</v>
@@ -4355,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>7.03795103949602</v>
+        <v>7.03795139549053</v>
       </c>
       <c r="L104" t="n">
-        <v>0.000000000370665694078456</v>
+        <v>0.000000000370664747328326</v>
       </c>
     </row>
     <row r="105">
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1.87184584817157</v>
+        <v>1.87184586691745</v>
       </c>
       <c r="H105" t="n">
-        <v>0.106276124436488</v>
+        <v>0.106276121770079</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4393,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>11.0420568883831</v>
+        <v>11.0420574523931</v>
       </c>
       <c r="L105" t="n">
-        <v>0.00000000000000000000000004550257136685</v>
+        <v>0.0000000000000000000000000455022856979087</v>
       </c>
     </row>
     <row r="106">
@@ -4419,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1.18810885513111</v>
+        <v>1.18810886855509</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0401197812519989</v>
+        <v>0.0401197812615351</v>
       </c>
       <c r="I106" t="e">
         <v>#NUM!</v>
@@ -4431,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>5.10436041301915</v>
+        <v>5.10436080407581</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0000630638809971396</v>
+        <v>0.0000630637505990689</v>
       </c>
     </row>
     <row r="107">
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.20698091591256</v>
+        <v>1.20698093932889</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0261126158049652</v>
+        <v>0.026112615793376</v>
       </c>
       <c r="I107" t="e">
         <v>#NUM!</v>
@@ -4469,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>8.69540698073626</v>
+        <v>8.69540805003643</v>
       </c>
       <c r="L107" t="n">
-        <v>0.000000000000000656618772074854</v>
+        <v>0.000000000000000656612588122655</v>
       </c>
     </row>
     <row r="108">
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1.08330144162528</v>
+        <v>1.08330144832728</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0384607322616294</v>
+        <v>0.0384607318618522</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2.25368796376716</v>
+        <v>2.25368817539128</v>
       </c>
       <c r="L108" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.30166566172087</v>
+        <v>1.30166567150508</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0296155283505062</v>
+        <v>0.0296155279364301</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4545,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>11.5877480966029</v>
+        <v>11.5877486760954</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0000000000000000000000000000903391262026625</v>
+        <v>0.0000000000000000000000000000903385151234841</v>
       </c>
     </row>
     <row r="110">
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1.27460151648067</v>
+        <v>1.27460152603089</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0794268938919006</v>
+        <v>0.0794268930871801</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4583,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>3.8936578189534</v>
+        <v>3.89365800781562</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0187613429979507</v>
+        <v>0.0187613283841767</v>
       </c>
     </row>
     <row r="111">
@@ -4609,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1.34274186257327</v>
+        <v>1.34274188800059</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0821833194146971</v>
+        <v>0.082183319484884</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4621,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>4.81514267377417</v>
+        <v>4.81514307024308</v>
       </c>
       <c r="L111" t="n">
-        <v>0.00027948003609921</v>
+        <v>0.00027947948120072</v>
       </c>
     </row>
     <row r="112">
@@ -4647,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.25112887923679</v>
+        <v>1.25112888484604</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0780328714792511</v>
+        <v>0.0780328704386808</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>3.59221344520094</v>
+        <v>3.59221358109161</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0622974116835352</v>
+        <v>0.0622973791885935</v>
       </c>
     </row>
     <row r="113">
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.46495719221547</v>
+        <v>1.46495719529003</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0896976391433043</v>
+        <v>0.0896976376982369</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4697,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>6.23604792749834</v>
+        <v>6.23604807532846</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0000000852650955797706</v>
+        <v>0.0000000852650150473633</v>
       </c>
     </row>
     <row r="114">
@@ -4723,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.10281119075589</v>
+        <v>1.10281119192228</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0340346146714942</v>
+        <v>0.0340346145713943</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4735,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>3.17100439659487</v>
+        <v>3.17100444354567</v>
       </c>
       <c r="L114" t="n">
-        <v>0.288634403413121</v>
+        <v>0.288634356761927</v>
       </c>
     </row>
     <row r="115">
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1.16176760595018</v>
+        <v>1.16176762047436</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0331762421547423</v>
+        <v>0.0331762424427963</v>
       </c>
       <c r="I115" t="e">
         <v>#NUM!</v>
@@ -4773,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>5.25070034191726</v>
+        <v>5.25070079975959</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0000287891807418789</v>
+        <v>0.0000287891091784175</v>
       </c>
     </row>
     <row r="116">
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1.08250218696577</v>
+        <v>1.08250218485304</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0335326207388724</v>
+        <v>0.0335326205097067</v>
       </c>
       <c r="I116" t="e">
         <v>#NUM!</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>2.5591670666688</v>
+        <v>2.55916701615847</v>
       </c>
       <c r="L116" t="n">
         <v>1</v>
@@ -4837,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1.26751079820958</v>
+        <v>1.26751079271324</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0362602734339651</v>
+        <v>0.0362602731155769</v>
       </c>
       <c r="I117" t="e">
         <v>#NUM!</v>
@@ -4849,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>8.28647202764624</v>
+        <v>8.28647191289348</v>
       </c>
       <c r="L117" t="n">
-        <v>0.000000000000022164851860398</v>
+        <v>0.0000000000000221648732354596</v>
       </c>
     </row>
     <row r="118">
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1.52818477150605</v>
+        <v>1.52818479495519</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0869428449562907</v>
+        <v>0.0869428432703933</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4887,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>7.45401793708202</v>
+        <v>7.45401846570722</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0000000000172025393286033</v>
+        <v>0.0000000000172024703646077</v>
       </c>
     </row>
     <row r="119">
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1.6098817080603</v>
+        <v>1.60988175118676</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0896391236604294</v>
+        <v>0.0896391228311814</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4925,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>8.55164993389853</v>
+        <v>8.55165072320806</v>
       </c>
       <c r="L119" t="n">
-        <v>0.00000000000000230548508298238</v>
+        <v>0.00000000000000230546931390786</v>
       </c>
     </row>
     <row r="120">
@@ -4951,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.50004222944928</v>
+        <v>1.50004224795242</v>
       </c>
       <c r="H120" t="n">
-        <v>0.085439145797154</v>
+        <v>0.0854391438670914</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4963,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>7.11918417604831</v>
+        <v>7.11918464125092</v>
       </c>
       <c r="L120" t="n">
-        <v>0.000000000206278735388619</v>
+        <v>0.000000000206278039229484</v>
       </c>
     </row>
     <row r="121">
@@ -4989,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1.75641190058627</v>
+        <v>1.75641191806338</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0978236826842877</v>
+        <v>0.0978236801177131</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -5001,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>10.1134963970317</v>
+        <v>10.1134969416701</v>
       </c>
       <c r="L121" t="n">
-        <v>0.000000000000000000000914567085009436</v>
+        <v>0.000000000000000000000914561999073666</v>
       </c>
     </row>
     <row r="122">
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.06268667570956</v>
+        <v>1.06268668936133</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0246064508130692</v>
+        <v>0.0246064506528271</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>2.62580208834963</v>
+        <v>2.62580269398641</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.11949802963827</v>
+        <v>1.11949805683156</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0223721956752853</v>
+        <v>0.022372195676581</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -5077,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>5.64850155435865</v>
+        <v>5.6485029067323</v>
       </c>
       <c r="L123" t="n">
-        <v>0.00000307519539017884</v>
+        <v>0.00000307517120316517</v>
       </c>
     </row>
     <row r="124">
@@ -5103,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.04311659163206</v>
+        <v>1.04311660189332</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0243118308097371</v>
+        <v>0.0243118305451653</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1.81117718880449</v>
+        <v>1.81117764839962</v>
       </c>
       <c r="L124" t="n">
         <v>1</v>
@@ -5141,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1.22139387763382</v>
+        <v>1.22139388673625</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0244861636548906</v>
+        <v>0.0244861632155054</v>
       </c>
       <c r="I125" t="e">
         <v>#NUM!</v>
@@ -5153,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>9.97583363712887</v>
+        <v>9.97583426221989</v>
       </c>
       <c r="L125" t="n">
-        <v>0.00000000000000000000369476885488531</v>
+        <v>0.00000000000000000000369474558802213</v>
       </c>
     </row>
     <row r="126">
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1.00013576693925</v>
+        <v>1.00013577540763</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0192806301420044</v>
+        <v>0.0192806303100428</v>
       </c>
       <c r="I126" t="e">
         <v>#NUM!</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>0.00704210153720281</v>
+        <v>0.00704254075242351</v>
       </c>
       <c r="L126" t="n">
         <v>1</v>
@@ -5217,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.799289679009398</v>
+        <v>0.799289675086905</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0197753800713048</v>
+        <v>0.0197753798616798</v>
       </c>
       <c r="I127" t="e">
         <v>#NUM!</v>
@@ -5229,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>-9.05501398238972</v>
+        <v>-9.05501423229071</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0000000000000000259445553207146</v>
+        <v>0.0000000000000000259444959124296</v>
       </c>
     </row>
     <row r="128">
@@ -5255,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1.13558243703501</v>
+        <v>1.13558243266376</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0219232746433299</v>
+        <v>0.02192327451699</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>6.58589572750281</v>
+        <v>6.58589554071637</v>
       </c>
       <c r="L128" t="n">
-        <v>0.00000000859087048373042</v>
+        <v>0.00000000859088128537691</v>
       </c>
     </row>
     <row r="129">
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.799181176627143</v>
+        <v>0.799181165938332</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0141602298762041</v>
+        <v>0.0141602295714447</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -5305,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>-12.6516682036426</v>
+        <v>-12.6516690615695</v>
       </c>
       <c r="L129" t="n">
-        <v>0.000000000000000000000000000000000208096110606338</v>
+        <v>0.000000000000000000000000000000000208093837960387</v>
       </c>
     </row>
     <row r="130">
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1.13542828341224</v>
+        <v>1.13542826942765</v>
       </c>
       <c r="H130" t="n">
-        <v>0.00988652405164735</v>
+        <v>0.00988652395823303</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5343,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>14.5865884639167</v>
+        <v>14.5865870075736</v>
       </c>
       <c r="L130" t="n">
-        <v>0.000000000000000000000000000000000000000000000649554802674653</v>
+        <v>0.000000000000000000000000000000000000000000000649568665621974</v>
       </c>
     </row>
     <row r="131">
@@ -5369,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1.42073952267518</v>
+        <v>1.42073952417851</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0252584536432102</v>
+        <v>0.0252584534014693</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5381,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>19.753061634578</v>
+        <v>19.7530619040476</v>
       </c>
       <c r="L131" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000143448138919882</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000001434473734222</v>
       </c>
     </row>
     <row r="132">
@@ -5407,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1.0347596586367</v>
+        <v>1.03475965636318</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0341953720921352</v>
+        <v>0.0341953719229633</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1.03396725777791</v>
+        <v>1.0339671941352</v>
       </c>
       <c r="L132" t="n">
         <v>1</v>
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1.05119590274653</v>
+        <v>1.05119590895382</v>
       </c>
       <c r="H133" t="n">
-        <v>0.021480227331772</v>
+        <v>0.0214802274752759</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>2.44339146818213</v>
+        <v>2.44339175526333</v>
       </c>
       <c r="L133" t="n">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.943479736806709</v>
+        <v>0.943479729910699</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0328574197121382</v>
+        <v>0.0328574191664578</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-1.670612619433</v>
+        <v>-1.67061284484384</v>
       </c>
       <c r="L134" t="n">
         <v>1</v>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1.13365968948424</v>
+        <v>1.13365968270599</v>
       </c>
       <c r="H135" t="n">
-        <v>0.0245473051238892</v>
+        <v>0.024547304897392</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5533,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>5.79366297822518</v>
+        <v>5.79366272091253</v>
       </c>
       <c r="L135" t="n">
-        <v>0.00000130848421294214</v>
+        <v>0.00000130848621868657</v>
       </c>
     </row>
     <row r="136">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1.03461919155577</v>
+        <v>1.0346191805222</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0291482283481788</v>
+        <v>0.0291482279613234</v>
       </c>
       <c r="I136" t="e">
         <v>#NUM!</v>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1.20801983221765</v>
+        <v>1.20801945683457</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
@@ -5597,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1.05105320446998</v>
+        <v>1.05105320177691</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0115167200248524</v>
+        <v>0.0115167201159291</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5609,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>4.54424443650445</v>
+        <v>4.54424415508431</v>
       </c>
       <c r="L137" t="n">
-        <v>0.00104752037411468</v>
+        <v>0.00104752177345834</v>
       </c>
     </row>
     <row r="138">
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.943351660839083</v>
+        <v>0.943351645956433</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0285242931771441</v>
+        <v>0.0285242924047488</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.92862397801603</v>
+        <v>-1.92862452156715</v>
       </c>
       <c r="L138" t="n">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1.13350579687158</v>
+        <v>1.1335057804966</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0147890678166141</v>
+        <v>0.0147890675518544</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5685,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>9.60477201904785</v>
+        <v>9.60477094500746</v>
       </c>
       <c r="L139" t="n">
-        <v>0.000000000000000000145020641516163</v>
+        <v>0.000000000000000000145022153427111</v>
       </c>
     </row>
     <row r="140">
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1.29459904939487</v>
+        <v>1.29459905290366</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0416431308007852</v>
+        <v>0.0416431306859952</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5723,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>8.02693758238149</v>
+        <v>8.02693771052194</v>
       </c>
       <c r="L140" t="n">
-        <v>0.000000000000189878204008353</v>
+        <v>0.00000000000018987800576075</v>
       </c>
     </row>
     <row r="141">
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.3151626129457</v>
+        <v>1.31516262716583</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0249685757117506</v>
+        <v>0.0249685758202206</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5761,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>14.4302330997606</v>
+        <v>14.4302337626191</v>
       </c>
       <c r="L141" t="n">
-        <v>0.00000000000000000000000000000000000000000000634506098021751</v>
+        <v>0.00000000000000000000000000000000000000000000634499999998369</v>
       </c>
     </row>
     <row r="142">
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1.18039774763014</v>
+        <v>1.18039774479523</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0401316537631332</v>
+        <v>0.0401316531828869</v>
       </c>
       <c r="I142" t="e">
         <v>#NUM!</v>
@@ -5799,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>4.8782112542018</v>
+        <v>4.87821124237792</v>
       </c>
       <c r="L142" t="n">
-        <v>0.000203399245098552</v>
+        <v>0.000203399257288796</v>
       </c>
     </row>
     <row r="143">
@@ -5825,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1.41833395232782</v>
+        <v>1.41833395080792</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0287596563762431</v>
+        <v>0.0287596560534849</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5837,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>17.2353754932253</v>
+        <v>17.2353756153334</v>
       </c>
       <c r="L143" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000273817602826227</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000273817024629304</v>
       </c>
     </row>
     <row r="144">
@@ -5863,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.91121491922545</v>
+        <v>0.911214920730956</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0256861568635605</v>
+        <v>0.025686156812755</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5875,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>-3.29833570498464</v>
+        <v>-3.29833565834647</v>
       </c>
       <c r="L144" t="n">
-        <v>0.184793578595383</v>
+        <v>0.184793609291708</v>
       </c>
     </row>
     <row r="145">
@@ -5901,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.9256887641651</v>
+        <v>0.925688773194564</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0101132955154786</v>
+        <v>0.0101132956516232</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5913,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.06783484516153</v>
+        <v>-7.06783392612573</v>
       </c>
       <c r="L145" t="n">
-        <v>0.000000000299002387866166</v>
+        <v>0.000000000299004367529711</v>
       </c>
     </row>
     <row r="146">
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.830833329256237</v>
+        <v>0.830833326381736</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0251446027838423</v>
+        <v>0.0251446023903458</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5951,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>-6.12358356420154</v>
+        <v>-6.12358375316417</v>
       </c>
       <c r="L146" t="n">
-        <v>0.000000173838286894624</v>
+        <v>0.000000173838080631188</v>
       </c>
     </row>
     <row r="147">
@@ -5977,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.998306818168308</v>
+        <v>0.998306816042177</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0130642796512899</v>
+        <v>0.0130642795163633</v>
       </c>
       <c r="I147" t="e">
         <v>#NUM!</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.129494134753994</v>
+        <v>-0.129494298559456</v>
       </c>
       <c r="L147" t="n">
         <v>1</v>
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.925525718494581</v>
+        <v>0.925525717893644</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0208053687439937</v>
+        <v>0.0208053686970006</v>
       </c>
       <c r="I148" t="e">
         <v>#NUM!</v>
@@ -6027,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.44283942785358</v>
+        <v>-3.44283946227826</v>
       </c>
       <c r="L148" t="n">
-        <v>0.109371787833461</v>
+        <v>0.109371773911958</v>
       </c>
     </row>
     <row r="149">
@@ -6053,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.975004431614241</v>
+        <v>0.975004442139268</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0187403726423922</v>
+        <v>0.0187403728386127</v>
       </c>
       <c r="I149" t="e">
         <v>#NUM!</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>-1.31697185696828</v>
+        <v>-1.31697129577234</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -6091,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.90848154494763</v>
+        <v>0.908481541623812</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0205644124141973</v>
+        <v>0.0205644122712162</v>
       </c>
       <c r="I150" t="e">
         <v>#NUM!</v>
@@ -6103,10 +6103,10 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>-4.24017460410101</v>
+        <v>-4.2401747796986</v>
       </c>
       <c r="L150" t="n">
-        <v>0.00424357376339464</v>
+        <v>0.00424357044365302</v>
       </c>
     </row>
     <row r="151">
@@ -6129,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1.06374858366144</v>
+        <v>1.06374857723291</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0204848199067163</v>
+        <v>0.0204848197474275</v>
       </c>
       <c r="I151" t="e">
         <v>#NUM!</v>
@@ -6141,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>3.20914086111662</v>
+        <v>3.20914055285809</v>
       </c>
       <c r="L151" t="n">
-        <v>0.252951277243099</v>
+        <v>0.252951548449327</v>
       </c>
     </row>
     <row r="152">
@@ -6167,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.925400079758173</v>
+        <v>0.925400071321742</v>
       </c>
       <c r="H152" t="n">
-        <v>0.013309578623235</v>
+        <v>0.0133095785095338</v>
       </c>
       <c r="I152" t="e">
         <v>#NUM!</v>
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>-5.39051253675391</v>
+        <v>-5.39051316752291</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0000133488326506403</v>
+        <v>0.0000133487857930359</v>
       </c>
     </row>
     <row r="153">
@@ -6205,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.974872076216295</v>
+        <v>0.974872078485427</v>
       </c>
       <c r="H153" t="n">
-        <v>0.008201867620053</v>
+        <v>0.0082018677328247</v>
       </c>
       <c r="I153" t="e">
         <v>#NUM!</v>
@@ -6217,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.02486464979291</v>
+        <v>-3.02486433858286</v>
       </c>
       <c r="L153" t="n">
-        <v>0.472614392331026</v>
+        <v>0.47261487861765</v>
       </c>
     </row>
     <row r="154">
@@ -6243,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.90835821993237</v>
+        <v>0.908358208917724</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0132839698872534</v>
+        <v>0.0132839696793151</v>
       </c>
       <c r="I154" t="e">
         <v>#NUM!</v>
@@ -6255,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.57244632668738</v>
+        <v>-6.57244717903954</v>
       </c>
       <c r="L154" t="n">
-        <v>0.00000000940409407379486</v>
+        <v>0.00000000940404022312229</v>
       </c>
     </row>
     <row r="155">
@@ -6281,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1.06360418137716</v>
+        <v>1.06360416594373</v>
       </c>
       <c r="H155" t="n">
-        <v>0.00904766499393996</v>
+        <v>0.00904766489873115</v>
       </c>
       <c r="I155" t="e">
         <v>#NUM!</v>
@@ -6293,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>7.2488709771811</v>
+        <v>7.24886924248458</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0000000000798493956688065</v>
+        <v>0.0000000000798504181907853</v>
       </c>
     </row>
     <row r="156">
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1.15793528028741</v>
+        <v>1.15793528521811</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0244980685856975</v>
+        <v>0.0244980685004934</v>
       </c>
       <c r="I156" t="e">
         <v>#NUM!</v>
@@ -6331,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>6.93107207780919</v>
+        <v>6.93107233269806</v>
       </c>
       <c r="L156" t="n">
-        <v>0.00000000079356001353549</v>
+        <v>0.000000000793558583513293</v>
       </c>
     </row>
     <row r="157">
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1.21983863575295</v>
+        <v>1.21983865490726</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0215303745203529</v>
+        <v>0.0215303746669423</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6369,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>11.2587268951484</v>
+        <v>11.2587278849225</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0000000000000000000000000039855761922698</v>
+        <v>0.00000000000000000000000000398553143381022</v>
       </c>
     </row>
     <row r="158">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1.13661112961393</v>
+        <v>1.13661113103336</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0242350033721462</v>
+        <v>0.0242350031711842</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6407,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>6.00554292313841</v>
+        <v>6.00554303900671</v>
       </c>
       <c r="L158" t="n">
-        <v>0.000000362316141682207</v>
+        <v>0.00000036231588291619</v>
       </c>
     </row>
     <row r="159">
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1.33086740839666</v>
+        <v>1.33086740688506</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0235489961001978</v>
+        <v>0.0235489958260285</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6445,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>16.1536844013468</v>
+        <v>16.1536845068793</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000203255508033919</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000203255160218834</v>
       </c>
     </row>
     <row r="160">
@@ -6471,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.815022924193081</v>
+        <v>0.815022926801196</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0118173566166224</v>
+        <v>0.0118173566154823</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6483,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.1067085058917</v>
+        <v>-14.1067083316927</v>
       </c>
       <c r="L160" t="n">
-        <v>0.000000000000000000000000000000000000000000656114606107401</v>
+        <v>0.000000000000000000000000000000000000000000656116226451504</v>
       </c>
     </row>
     <row r="161">
@@ -6509,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.858594145009818</v>
+        <v>0.858594157583237</v>
       </c>
       <c r="H161" t="n">
-        <v>0.00740845356932428</v>
+        <v>0.00740845367785869</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6521,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>-17.6690525373499</v>
+        <v>-17.6690508400741</v>
       </c>
       <c r="L161" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000137951588956794</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000137955739252524</v>
       </c>
     </row>
     <row r="162">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.800013733322313</v>
+        <v>0.800013733474868</v>
       </c>
       <c r="H162" t="n">
-        <v>0.0117946592036991</v>
+        <v>0.011794659120855</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6559,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.1343221563796</v>
+        <v>-15.1343222526327</v>
       </c>
       <c r="L162" t="n">
-        <v>0.000000000000000000000000000000000000000000000000182716266843595</v>
+        <v>0.000000000000000000000000000000000000000000000000182715999524373</v>
       </c>
     </row>
     <row r="163">
@@ -6585,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.936742722473649</v>
+        <v>0.936742720418501</v>
       </c>
       <c r="H163" t="n">
-        <v>0.00815126234591298</v>
+        <v>0.00815126227193364</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6597,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.50962967339929</v>
+        <v>-7.50962997720604</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0000000000112660231187124</v>
+        <v>0.0000000000112659969746976</v>
       </c>
     </row>
     <row r="164">
@@ -6623,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.01588411760417</v>
+        <v>1.01588412583499</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0288500995438903</v>
+        <v>0.0288500997098938</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>0.55492382235119</v>
+        <v>0.554924108950215</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9117863543789</v>
+        <v>0.911786349717869</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0363078423897715</v>
+        <v>0.0363078418948115</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.3191431522327</v>
+        <v>-2.3191433003679</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6699,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1.09557777984681</v>
+        <v>1.09557777570341</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0318665342050007</v>
+        <v>0.0318665339435186</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6711,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>3.13828907252085</v>
+        <v>3.1382889563798</v>
       </c>
       <c r="L166" t="n">
-        <v>0.322880666760033</v>
+        <v>0.322880794706146</v>
       </c>
     </row>
     <row r="167">
@@ -6737,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.89752988414587</v>
+        <v>0.897529872285821</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0272780526601799</v>
+        <v>0.0272780519988985</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6749,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-3.55710635442383</v>
+        <v>-3.55710682843572</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0712428516143878</v>
+        <v>0.0712427231102025</v>
       </c>
     </row>
     <row r="168">
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1.0784475914739</v>
+        <v>1.07844757865757</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0145759857519659</v>
+        <v>0.0145759855455604</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>5.58776322735905</v>
+        <v>5.58776236080299</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0000043702461403174</v>
+        <v>0.0000043702679415886</v>
       </c>
     </row>
     <row r="169">
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1.20157290639988</v>
+        <v>1.20157290799803</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0372731189695789</v>
+        <v>0.0372731185529547</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6825,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>5.91972407444242</v>
+        <v>5.91972419136083</v>
       </c>
       <c r="L169" t="n">
-        <v>0.000000612716172064083</v>
+        <v>0.000000612715736495321</v>
       </c>
     </row>
     <row r="170">
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.894435447661312</v>
+        <v>0.894435449045768</v>
       </c>
       <c r="H170" t="n">
-        <v>0.027169358342794</v>
+        <v>0.0271693582971673</v>
       </c>
       <c r="I170" t="e">
         <v>#NUM!</v>
@@ -6863,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.67272179003044</v>
+        <v>-3.6727217509265</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0455963348132645</v>
+        <v>0.0455963417930172</v>
       </c>
     </row>
     <row r="171">
@@ -6889,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.942252071267269</v>
+        <v>0.942252083509007</v>
       </c>
       <c r="H171" t="n">
-        <v>0.0264377578623881</v>
+        <v>0.026437758129144</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.1199778253121</v>
+        <v>-2.11997736842444</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.877963822192837</v>
+        <v>0.877963820909688</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0267742958288755</v>
+        <v>0.0267742956788332</v>
       </c>
       <c r="I172" t="e">
         <v>#NUM!</v>
@@ -6939,10 +6939,10 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.26778341734477</v>
+        <v>-4.26778348294856</v>
       </c>
       <c r="L172" t="n">
-        <v>0.00375107239801686</v>
+        <v>0.00375107129518831</v>
       </c>
     </row>
     <row r="173">
@@ -6965,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1.02801512871398</v>
+        <v>1.0280151247601</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0288597713161273</v>
+        <v>0.0288597711023373</v>
       </c>
       <c r="I173" t="e">
         <v>#NUM!</v>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>0.984205245635044</v>
+        <v>0.984205112137539</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7003,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.8804502719963</v>
+        <v>0.880450266225593</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0139250703765406</v>
+        <v>0.0139250703045684</v>
       </c>
       <c r="I174" t="e">
         <v>#NUM!</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.05026736039556</v>
+        <v>-8.05026776365131</v>
       </c>
       <c r="L174" t="n">
-        <v>0.000000000000156965396229029</v>
+        <v>0.000000000000156964879033554</v>
       </c>
     </row>
     <row r="175">
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.927519246476112</v>
+        <v>0.927519251011566</v>
       </c>
       <c r="H175" t="n">
-        <v>0.00993411952909564</v>
+        <v>0.00993411966776113</v>
       </c>
       <c r="I175" t="e">
         <v>#NUM!</v>
@@ -7053,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.02509729540354</v>
+        <v>-7.02509677514237</v>
       </c>
       <c r="L175" t="n">
-        <v>0.000000000406442546118972</v>
+        <v>0.000000000406444060610942</v>
       </c>
     </row>
     <row r="176">
@@ -7079,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.864236192867549</v>
+        <v>0.864236184602316</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0138656108954058</v>
+        <v>0.013865610734387</v>
       </c>
       <c r="I176" t="e">
         <v>#NUM!</v>
@@ -7091,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>-9.09444177126853</v>
+        <v>-9.09444238600062</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0000000000000000180639845464588</v>
+        <v>0.0000000000000000180638823642793</v>
       </c>
     </row>
     <row r="177">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1.01194133356314</v>
+        <v>1.01194132147222</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0108799293112983</v>
+        <v>0.0108799292297951</v>
       </c>
       <c r="I177" t="e">
         <v>#NUM!</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1.10408338407842</v>
+        <v>1.10408226785179</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7155,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.98097042510643</v>
+        <v>0.980970431639529</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0316823627714744</v>
+        <v>0.0316823626406526</v>
       </c>
       <c r="I178" t="e">
         <v>#NUM!</v>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.59488470294077</v>
+        <v>-0.594884503152826</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1.03341321872394</v>
+        <v>1.03341323743283</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0311368985733722</v>
+        <v>0.031136898775203</v>
       </c>
       <c r="I179" t="e">
         <v>#NUM!</v>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1.09083840650654</v>
+        <v>1.09083902004323</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7231,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.962905200298701</v>
+        <v>0.962905203813759</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0312060487235788</v>
+        <v>0.031206048477114</v>
       </c>
       <c r="I180" t="e">
         <v>#NUM!</v>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.16638025306807</v>
+        <v>-1.16638015389769</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1.12747369356526</v>
+        <v>1.12747369499247</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0339859953651296</v>
+        <v>0.0339859949933538</v>
       </c>
       <c r="I181" t="e">
         <v>#NUM!</v>
@@ -7281,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>3.98027728769518</v>
+        <v>3.98027737826838</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0130786363620292</v>
+        <v>0.0130786313787543</v>
       </c>
     </row>
     <row r="182">
@@ -7307,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.816405246724132</v>
+        <v>0.8164052510754</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0141496363655429</v>
+        <v>0.0141496363703817</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -7319,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.7037106557624</v>
+        <v>-11.7037104066204</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0000000000000000000000000000231799153567007</v>
+        <v>0.00000000000000000000000000002317998343328</v>
       </c>
     </row>
     <row r="183">
@@ -7345,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.860050366664995</v>
+        <v>0.860050381091421</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0110443220651109</v>
+        <v>0.0110443221964425</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -7357,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.7404140076161</v>
+        <v>-11.7404127587099</v>
       </c>
       <c r="L183" t="n">
-        <v>0.000000000000000000000000000015028675427728</v>
+        <v>0.0000000000000000000000000000150288973662628</v>
       </c>
     </row>
     <row r="184">
@@ -7383,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.801370599461774</v>
+        <v>0.801370601321297</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0140569923932723</v>
+        <v>0.014056992317451</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7395,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>-12.6235330885202</v>
+        <v>-12.623533053617</v>
       </c>
       <c r="L184" t="n">
-        <v>0.000000000000000000000000000000000297602781756454</v>
+        <v>0.000000000000000000000000000000000297602913693488</v>
       </c>
     </row>
     <row r="185">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.938331488301745</v>
+        <v>0.938331488241511</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0120814994486432</v>
+        <v>0.0120814993512309</v>
       </c>
       <c r="I185" t="e">
         <v>#NUM!</v>
@@ -7433,10 +7433,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>-4.94364709618715</v>
+        <v>-4.94364714071572</v>
       </c>
       <c r="L185" t="n">
-        <v>0.00014568145051865</v>
+        <v>0.000145681417227362</v>
       </c>
     </row>
     <row r="186">
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1.05346011691619</v>
+        <v>1.05346012897214</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0137454385935691</v>
+        <v>0.0137454387465042</v>
       </c>
       <c r="I186" t="e">
         <v>#NUM!</v>
@@ -7471,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>3.99145530992364</v>
+        <v>3.99145618827971</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0124771222628132</v>
+        <v>0.0124770760422276</v>
       </c>
     </row>
     <row r="187">
@@ -7497,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.98158433287551</v>
+        <v>0.981584329921569</v>
       </c>
       <c r="H187" t="n">
-        <v>0.017344950930503</v>
+        <v>0.0173449507888231</v>
       </c>
       <c r="I187" t="e">
         <v>#NUM!</v>
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>-1.05189390290096</v>
+        <v>-1.05189407863323</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7535,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1.14934524498323</v>
+        <v>1.14934523878369</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0149606503850107</v>
+        <v>0.0149606502544518</v>
       </c>
       <c r="I188" t="e">
         <v>#NUM!</v>
@@ -7547,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>10.6933957544062</v>
+        <v>10.6933953756554</v>
       </c>
       <c r="L188" t="n">
-        <v>0.00000000000000000000000207659697662222</v>
+        <v>0.00000000000000000000000207660545944933</v>
       </c>
     </row>
     <row r="189">
@@ -7573,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.931771708404983</v>
+        <v>0.931771694937617</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0124292923336859</v>
+        <v>0.0124292920895988</v>
       </c>
       <c r="I189" t="e">
         <v>#NUM!</v>
@@ -7585,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>-5.29764058426461</v>
+        <v>-5.29764169524881</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0000222886305047556</v>
+        <v>0.0000222884949346696</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1.0910192294206</v>
+        <v>1.09101921104988</v>
       </c>
       <c r="H190" t="n">
-        <v>0.0064605196629241</v>
+        <v>0.00646051957573813</v>
       </c>
       <c r="I190" t="e">
         <v>#NUM!</v>
@@ -7623,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>14.711081229364</v>
+        <v>14.7110783366504</v>
       </c>
       <c r="L190" t="n">
-        <v>0.000000000000000000000000000000000000000000000103979331853545</v>
+        <v>0.000000000000000000000000000000000000000000000103983777044131</v>
       </c>
     </row>
     <row r="191">
@@ -7649,10 +7649,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1.17090830251566</v>
+        <v>1.17090829972349</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0155842763874331</v>
+        <v>0.0155842762235852</v>
       </c>
       <c r="I191" t="e">
         <v>#NUM!</v>
@@ -7661,10 +7661,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>11.8546182965937</v>
+        <v>11.8546182137945</v>
       </c>
       <c r="L191" t="n">
-        <v>0.00000000000000000000000000000386935198224557</v>
+        <v>0.00000000000000000000000000000386935580687533</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_season_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_season_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01625880150643</v>
+        <v>1.01625879373614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0107212117004818</v>
+        <v>0.0107212116540918</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52876985481792</v>
+        <v>1.52876912498532</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.930190125825495</v>
+        <v>0.930190130161032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0126906429838</v>
+        <v>0.0126906431524224</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.3042542231091</v>
+        <v>-5.30425383572082</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0000214955656621724</v>
+        <v>0.0000214956113056216</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13387551258589</v>
+        <v>1.13387551670039</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0119048323973489</v>
+        <v>0.011904832502531</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9667146111977</v>
+        <v>11.9667148945084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000000000000000000000000100869960422941</v>
+        <v>0.00000000000000000000000000000100869616088415</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.915308309700883</v>
+        <v>0.915308320965482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00901580920057436</v>
+        <v>0.00901580940858406</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.98417264905264</v>
+        <v>-8.98417130291271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0000000000000000495307553281171</v>
+        <v>0.0000000000000000495313616024238</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11573499870811</v>
+        <v>1.11573501128767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00514952310872609</v>
+        <v>0.00514952316981853</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>23.7280050310514</v>
+        <v>23.7280074599334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352217384140132</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352197049622049</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21897177910766</v>
+        <v>1.21897177784943</v>
       </c>
       <c r="H7" t="n">
-        <v>0.011948960598532</v>
+        <v>0.0119489607412398</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>20.1997316498911</v>
+        <v>20.1997312824924</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187018293439452</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187019684758693</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.726619684085851</v>
+        <v>0.726619688296632</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0449491158999858</v>
+        <v>0.0449491169623555</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.16244857678054</v>
+        <v>-5.16244839100407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0000463106654841478</v>
+        <v>0.0000463107114590196</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.839808813116561</v>
+        <v>0.839808812303064</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0251366876083203</v>
+        <v>0.025136687678605</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,10 +745,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.83269675503193</v>
+        <v>-5.83269676543608</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00000103623404613874</v>
+        <v>0.00000103623398150273</v>
       </c>
     </row>
     <row r="10">
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.606046180564875</v>
+        <v>0.606046188791185</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0341922156390743</v>
+        <v>0.0341922173044779</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-8.87650508198854</v>
+        <v>-8.87650452953695</v>
       </c>
       <c r="L10" t="n">
-        <v>0.000000000000000131088568943449</v>
+        <v>0.000000000000000131089219745902</v>
       </c>
     </row>
     <row r="11">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.871517981218453</v>
+        <v>0.871517990839674</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0190938228899375</v>
+        <v>0.0190938235136208</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-6.27690388317611</v>
+        <v>-6.27690324354925</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0000000656224741290008</v>
+        <v>0.0000000656227439797641</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.714994726745552</v>
+        <v>0.714994736355797</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0437109647536146</v>
+        <v>0.0437109661329379</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.48755928861262</v>
+        <v>-5.48755896934907</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00000774297987404163</v>
+        <v>0.00000774299386417519</v>
       </c>
     </row>
     <row r="13">
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.826372978882631</v>
+        <v>0.826372984400577</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0234703972247593</v>
+        <v>0.023470397463206</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>-6.71470583793312</v>
+        <v>-6.7147055794491</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00000000358047381165625</v>
+        <v>0.0000000035804801583929</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.596350240378254</v>
+        <v>0.596350253032632</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0331684581992895</v>
+        <v>0.0331684600961091</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.29405937700988</v>
+        <v>-9.29405866120513</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00000000000000000282175677892252</v>
+        <v>0.00000000000000000282177576393815</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8575748420841</v>
+        <v>0.857574858108391</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0169514616754949</v>
+        <v>0.0169514624179134</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.7729964325805</v>
+        <v>-7.77299529208744</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00000000000145636711936438</v>
+        <v>0.00000000000145638023732301</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.781151792426321</v>
+        <v>0.781151793312235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0482350095234646</v>
+        <v>0.0482350104503389</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.99986225070925</v>
+        <v>-3.99986216001837</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0120420791339685</v>
+        <v>0.0120420837486401</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.902835656711873</v>
+        <v>0.902835651629284</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0268091369497257</v>
+        <v>0.0268091369217908</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-3.44222610735283</v>
+        <v>-3.44222628114549</v>
       </c>
       <c r="L17" t="n">
-        <v>0.109620079616874</v>
+        <v>0.109620009185761</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.651529363448188</v>
+        <v>0.651529369255152</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0366791629639856</v>
+        <v>0.0366791645929735</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>-7.61022158949256</v>
+        <v>-7.61022116101963</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0000000000051989013163097</v>
+        <v>0.00000000000519891855215803</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.936924567378122</v>
+        <v>0.936924573354481</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0202264259112412</v>
+        <v>0.0202264265200102</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.0179816370364</v>
+        <v>-3.01798126998009</v>
       </c>
       <c r="L19" t="n">
-        <v>0.483482214373611</v>
+        <v>0.483482799976536</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.640828447232926</v>
+        <v>0.640828448621166</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0391705577520934</v>
+        <v>0.0391705585489123</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-7.28007218097959</v>
+        <v>-7.28007201321631</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0000000000633919064654951</v>
+        <v>0.0000000000633919852981774</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.740653452512891</v>
+        <v>0.74065344910783</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0210181438457883</v>
+        <v>0.0210181438278472</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-10.5794682551161</v>
+        <v>-10.5794683775147</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00000000000000000000000705010317563934</v>
+        <v>0.00000000000000000000000705009396620702</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.534490932944431</v>
+        <v>0.534490938259959</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0297232073328289</v>
+        <v>0.0297232086997886</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>-11.2648265072687</v>
+        <v>-11.2648259223982</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0000000000000000000000000037190044974349</v>
+        <v>0.00000000000000000000000000371902919020917</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.768618751833605</v>
+        <v>0.768618757529767</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0151693954175115</v>
+        <v>0.0151693959201771</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.3340757346448</v>
+        <v>-13.33407501611</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0000000000000000000000000000000000000278656083719094</v>
+        <v>0.0000000000000000000000000000000000000278658768386894</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.00067511931239</v>
+        <v>1.00067511708922</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0210583266341395</v>
+        <v>0.0210583266317496</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0320703143180832</v>
+        <v>0.0320702086783882</v>
       </c>
       <c r="L24" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.00081098638462</v>
+        <v>1.00081097571187</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0120590089769376</v>
+        <v>0.0120590088460596</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0672787578788456</v>
+        <v>0.0672778728479945</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.799829290982754</v>
+        <v>0.799829292947154</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0157091283002679</v>
+        <v>0.0157091284795605</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.372205753418</v>
+        <v>-11.372205526506</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00000000000000000000000000109279411706177</v>
+        <v>0.00000000000000000000000000109279695848947</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.13634908629487</v>
+        <v>1.13634908819484</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0137750664247483</v>
+        <v>0.0137750665211947</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>10.5443255559684</v>
+        <v>10.5443256377005</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000000000000000000000102521350899177</v>
+        <v>0.0000000000000000000000102521261764349</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.984665636183485</v>
+        <v>0.984665641524611</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0185192325603276</v>
+        <v>0.0185192326801826</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.82164240872071</v>
+        <v>-0.821642119450273</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.984799329561615</v>
+        <v>0.984799326589368</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0073686893064859</v>
+        <v>0.00736868920689054</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-2.04711445295514</v>
+        <v>-2.04711487780721</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.787033076414339</v>
+        <v>0.787033084364947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0135550585895484</v>
+        <v>0.0135550588586745</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-13.9049652493334</v>
+        <v>-13.9049645271864</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0000000000000000000000000000000000000000112281560054389</v>
+        <v>0.0000000000000000000000000000000000000000112282693299938</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.11816899849766</v>
+        <v>1.11816900891672</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00852522710825289</v>
+        <v>0.00852522721996458</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>14.649594311134</v>
+        <v>14.6495954778207</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000000000000000000000000000000000000000000000257492674175079</v>
+        <v>0.000000000000000000000000000000000000000000000257488252960721</v>
       </c>
     </row>
     <row r="32">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.07577482444715</v>
+        <v>1.07577481704304</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0222968938480934</v>
+        <v>0.0222968937783358</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.52407161123242</v>
+        <v>3.52407126593378</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0807441820241456</v>
+        <v>0.0807442872493278</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.07592088821245</v>
+        <v>1.07592087172395</v>
       </c>
       <c r="H33" t="n">
-        <v>0.012351611772593</v>
+        <v>0.0123516116444489</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>6.37427684963082</v>
+        <v>6.37427548314878</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0000000349273692541111</v>
+        <v>0.00000003492768064214</v>
       </c>
     </row>
     <row r="34">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.859855709899035</v>
+        <v>0.859855708003147</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0165951860825446</v>
+        <v>0.0165951862301132</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.82336517781891</v>
+        <v>-7.82336520524513</v>
       </c>
       <c r="L34" t="n">
-        <v>0.000000000000977163030090453</v>
+        <v>0.000000000000977162817103259</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.22163099214413</v>
+        <v>1.22163098849277</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0141362648208708</v>
+        <v>0.0141362649329362</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>17.2997928968157</v>
+        <v>17.2997924496667</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000896957449365243</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000896964410914091</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.88252643981197</v>
+        <v>0.882526434648858</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0165695902736581</v>
+        <v>0.0165695902038559</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.65594413822962</v>
+        <v>-6.65594443893078</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00000000534825602917251</v>
+        <v>0.00000000534824509314014</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.882646265199077</v>
+        <v>0.882646252583586</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00653159831974576</v>
+        <v>0.0065315981808438</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.8689809909486</v>
+        <v>-16.8689830400374</v>
       </c>
       <c r="L37" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000144585848080009</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000144580832965033</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.705394271332913</v>
+        <v>0.70539427050571</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0121234000049042</v>
+        <v>0.0121234001177774</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-20.306305123292</v>
+        <v>-20.3063049786521</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000214888706432772</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000214889339106965</v>
       </c>
     </row>
     <row r="39">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00218152141177</v>
+        <v>1.00218151945079</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0075475616587873</v>
+        <v>0.00754756170060588</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.289351621079145</v>
+        <v>0.289351359093733</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.03545824259088</v>
+        <v>1.03545824260092</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0303271692804538</v>
+        <v>0.0303271693934805</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1.18967861907086</v>
+        <v>1.18967861497994</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.05190559161306</v>
+        <v>1.05190558282714</v>
       </c>
       <c r="H41" t="n">
-        <v>0.014311235212018</v>
+        <v>0.0143112350701675</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.71945296583856</v>
+        <v>3.7194523577212</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0379343969111114</v>
+        <v>0.0379344882372053</v>
       </c>
     </row>
     <row r="42">
@@ -1987,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.944116691297214</v>
+        <v>0.944116696238507</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0295318734555013</v>
+        <v>0.0295318739621225</v>
       </c>
       <c r="I42" t="e">
         <v>#NUM!</v>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.83841735968054</v>
+        <v>-1.83841717044356</v>
       </c>
       <c r="L42" t="n">
         <v>1</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.13442503825147</v>
+        <v>1.13442504259804</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0174136907857061</v>
+        <v>0.0174136909707403</v>
       </c>
       <c r="I43" t="e">
         <v>#NUM!</v>
@@ -2037,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>8.21654843572191</v>
+        <v>8.21654862950295</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0000000000000397943408569745</v>
+        <v>0.0000000000000397942765834504</v>
       </c>
     </row>
     <row r="44">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.01889227532985</v>
+        <v>1.01889228313017</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0282700170919593</v>
+        <v>0.0282700174048198</v>
       </c>
       <c r="I44" t="e">
         <v>#NUM!</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.674552865179672</v>
+        <v>0.674553138800436</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.03507648844349</v>
+        <v>1.0350764877123</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0102009860910415</v>
+        <v>0.0102009859943872</v>
       </c>
       <c r="I45" t="e">
         <v>#NUM!</v>
@@ -2113,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>3.49815193504667</v>
+        <v>3.49815189404247</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0890138902391143</v>
+        <v>0.0890139039251215</v>
       </c>
     </row>
     <row r="46">
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.929012068478741</v>
+        <v>0.929012080444183</v>
       </c>
       <c r="H46" t="n">
-        <v>0.027720651113406</v>
+        <v>0.0277206518158736</v>
       </c>
       <c r="I46" t="e">
         <v>#NUM!</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-2.46770740633294</v>
+        <v>-2.46770694393872</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1.11627573268726</v>
+        <v>1.11627574549931</v>
       </c>
       <c r="H47" t="n">
-        <v>0.013556317553872</v>
+        <v>0.0135563178048494</v>
       </c>
       <c r="I47" t="e">
         <v>#NUM!</v>
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>9.0576214623542</v>
+        <v>9.05762234372098</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0000000000000000253319467259201</v>
+        <v>0.0000000000000000253317420913689</v>
       </c>
     </row>
     <row r="48">
@@ -2215,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1.11316838766909</v>
+        <v>1.11316838249151</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0323303499761471</v>
+        <v>0.0323303499738214</v>
       </c>
       <c r="I48" t="e">
         <v>#NUM!</v>
@@ -2227,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>3.69136663798964</v>
+        <v>3.69136646093975</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0423799446565314</v>
+        <v>0.0423799741618558</v>
       </c>
     </row>
     <row r="49">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1.13085009441436</v>
+        <v>1.13085007969827</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0148058481502656</v>
+        <v>0.0148058479911371</v>
       </c>
       <c r="I49" t="e">
         <v>#NUM!</v>
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>9.39225056136429</v>
+        <v>9.39224954614734</v>
       </c>
       <c r="L49" t="n">
-        <v>0.00000000000000000111590166453162</v>
+        <v>0.0000000000000000011159124229246</v>
       </c>
     </row>
     <row r="50">
@@ -2291,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1.01497174081413</v>
+        <v>1.01497174139556</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0315122975459504</v>
+        <v>0.0315122979674451</v>
       </c>
       <c r="I50" t="e">
         <v>#NUM!</v>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.478646856092129</v>
+        <v>0.478646868415232</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1.21956254614585</v>
+        <v>1.21956254513435</v>
       </c>
       <c r="H51" t="n">
-        <v>0.018145823203829</v>
+        <v>0.0181458233751841</v>
       </c>
       <c r="I51" t="e">
         <v>#NUM!</v>
@@ -2341,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>13.3404630618977</v>
+        <v>13.3404628691132</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0000000000000000000000000000000000000255779353718377</v>
+        <v>0.0000000000000000000000000000000000000255780015197161</v>
       </c>
     </row>
     <row r="52">
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.913202755591253</v>
+        <v>0.913202752286372</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0252913549750446</v>
+        <v>0.0252913549768146</v>
       </c>
       <c r="I52" t="e">
         <v>#NUM!</v>
@@ -2379,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.27844780946103</v>
+        <v>-3.27844792803925</v>
       </c>
       <c r="L52" t="n">
-        <v>0.198321361291513</v>
+        <v>0.198321277970953</v>
       </c>
     </row>
     <row r="53">
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.927708183073921</v>
+        <v>0.927708171958966</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00903324782001336</v>
+        <v>0.00903324765037788</v>
       </c>
       <c r="I53" t="e">
         <v>#NUM!</v>
@@ -2417,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.70635520031269</v>
+        <v>-7.70635648314936</v>
       </c>
       <c r="L53" t="n">
-        <v>0.00000000000245977757226063</v>
+        <v>0.00000000000245975285832129</v>
       </c>
     </row>
     <row r="54">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.832645807072848</v>
+        <v>0.832645808409301</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0248079074209011</v>
+        <v>0.0248079077767909</v>
       </c>
       <c r="I54" t="e">
         <v>#NUM!</v>
@@ -2455,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>-6.14709333533066</v>
+        <v>-6.14709320313999</v>
       </c>
       <c r="L54" t="n">
-        <v>0.000000149939823827927</v>
+        <v>0.000000149939948740087</v>
       </c>
     </row>
     <row r="55">
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.00048464373689</v>
+        <v>1.0004846439398</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01204032833883</v>
+        <v>0.0120403284443723</v>
       </c>
       <c r="I55" t="e">
         <v>#NUM!</v>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0.040261456669091</v>
+        <v>0.0402614731769814</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.926150558179912</v>
+        <v>0.926150556540147</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0148457047152569</v>
+        <v>0.0148457047358442</v>
       </c>
       <c r="I56" t="e">
         <v>#NUM!</v>
@@ -2531,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>-4.78608816955106</v>
+        <v>-4.78608826489391</v>
       </c>
       <c r="L56" t="n">
-        <v>0.000323120403743649</v>
+        <v>0.000323120250328577</v>
       </c>
     </row>
     <row r="57">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.975662686467827</v>
+        <v>0.975662673667595</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0107665720718593</v>
+        <v>0.0107665719435162</v>
       </c>
       <c r="I57" t="e">
         <v>#NUM!</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.23271889783653</v>
+        <v>-2.23272008404595</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.909094875057516</v>
+        <v>0.909094876306909</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0147794699477389</v>
+        <v>0.0147794700644625</v>
       </c>
       <c r="I58" t="e">
         <v>#NUM!</v>
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.86232323162035</v>
+        <v>-5.86232310884255</v>
       </c>
       <c r="L58" t="n">
-        <v>0.000000867227278912596</v>
+        <v>0.000000867227920344516</v>
       </c>
     </row>
     <row r="59">
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.06446673444094</v>
+        <v>1.06446673841306</v>
       </c>
       <c r="H59" t="n">
-        <v>0.011778646939441</v>
+        <v>0.011778647047634</v>
       </c>
       <c r="I59" t="e">
         <v>#NUM!</v>
@@ -2645,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>5.64593260402389</v>
+        <v>5.64593291046189</v>
       </c>
       <c r="L59" t="n">
-        <v>0.00000312147580138822</v>
+        <v>0.00000312147024068208</v>
       </c>
     </row>
     <row r="60">
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.911333369813922</v>
+        <v>0.911333375168424</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0117892879941786</v>
+        <v>0.0117892880808621</v>
       </c>
       <c r="I60" t="e">
         <v>#NUM!</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.17720384659003</v>
+        <v>-7.17720338180369</v>
       </c>
       <c r="L60" t="n">
-        <v>0.000000000135187969378211</v>
+        <v>0.000000000135188428791638</v>
       </c>
     </row>
     <row r="61">
@@ -2709,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.960053369300786</v>
+        <v>0.960053364045886</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00545347178331782</v>
+        <v>0.00545347168335962</v>
       </c>
       <c r="I61" t="e">
         <v>#NUM!</v>
@@ -2721,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>-7.17669846871363</v>
+        <v>-7.17669952456339</v>
       </c>
       <c r="L61" t="n">
-        <v>0.000000000135688411301114</v>
+        <v>0.000000000135687363870412</v>
       </c>
     </row>
     <row r="62">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.894550555143964</v>
+        <v>0.894550563213081</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0118257892683588</v>
+        <v>0.0118257894534516</v>
       </c>
       <c r="I62" t="e">
         <v>#NUM!</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.42930809430188</v>
+        <v>-8.42930735607228</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00000000000000660658496990899</v>
+        <v>0.00000000000000660662664461471</v>
       </c>
     </row>
     <row r="63">
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1.04743666954032</v>
+        <v>1.04743668145757</v>
       </c>
       <c r="H63" t="n">
-        <v>0.00600182561951032</v>
+        <v>0.00600182570677397</v>
       </c>
       <c r="I63" t="e">
         <v>#NUM!</v>
@@ -2797,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>8.08827365508613</v>
+        <v>8.08827561511492</v>
       </c>
       <c r="L63" t="n">
-        <v>0.000000000000114981006965243</v>
+        <v>0.000000000000114979157087205</v>
       </c>
     </row>
     <row r="64">
@@ -2823,10 +2823,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.995657266688357</v>
+        <v>0.995657260284856</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0155082826805821</v>
+        <v>0.0155082826758652</v>
       </c>
       <c r="I64" t="e">
         <v>#NUM!</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.279417783044942</v>
+        <v>-0.279418194241322</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -2861,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1.04888523257756</v>
+        <v>1.04888521392792</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0108772433821807</v>
+        <v>0.0108772432718464</v>
       </c>
       <c r="I65" t="e">
         <v>#NUM!</v>
@@ -2873,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>4.6023707924394</v>
+        <v>4.60236904273595</v>
       </c>
       <c r="L65" t="n">
-        <v>0.000793646526254162</v>
+        <v>0.000793653195654057</v>
       </c>
     </row>
     <row r="66">
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.977321570953832</v>
+        <v>0.977321567741779</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0154522596102532</v>
+        <v>0.0154522597078022</v>
       </c>
       <c r="I66" t="e">
         <v>#NUM!</v>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.45087564735713</v>
+        <v>-1.4508758412989</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
@@ -2937,10 +2937,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.14435393892864</v>
+        <v>1.14435393786513</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0119133157257259</v>
+        <v>0.0119133158621797</v>
       </c>
       <c r="I67" t="e">
         <v>#NUM!</v>
@@ -2949,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>12.9523093730735</v>
+        <v>12.9523091234112</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00000000000000000000000000000000000433182280604434</v>
+        <v>0.00000000000000000000000000000000000433183689642899</v>
       </c>
     </row>
     <row r="68">
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.816800916767095</v>
+        <v>0.816800912357006</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0105630220142183</v>
+        <v>0.0105630219859752</v>
       </c>
       <c r="I68" t="e">
         <v>#NUM!</v>
@@ -2987,10 +2987,10 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>-15.6477704237462</v>
+        <v>-15.6477707986016</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000653721598395805</v>
+        <v>0.0000000000000000000000000000000000000000000000000000653717748369838</v>
       </c>
     </row>
     <row r="69">
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.860467199122024</v>
+        <v>0.860467184710721</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00486024536890536</v>
+        <v>0.00486024525575027</v>
       </c>
       <c r="I69" t="e">
         <v>#NUM!</v>
@@ -3025,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.6058220676624</v>
+        <v>-26.6058252066315</v>
       </c>
       <c r="L69" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110443092085268</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000110433855838564</v>
       </c>
     </row>
     <row r="70">
@@ -3051,10 +3051,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.801758980564152</v>
+        <v>0.801758978756684</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0105936749579355</v>
+        <v>0.0105936750171494</v>
       </c>
       <c r="I70" t="e">
         <v>#NUM!</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.721905667128</v>
+        <v>-16.7219057065802</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000172462445842316</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000172462331662236</v>
       </c>
     </row>
     <row r="71">
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.938786244720412</v>
+        <v>0.93878624481697</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00536088605264965</v>
+        <v>0.0053608861041482</v>
       </c>
       <c r="I71" t="e">
         <v>#NUM!</v>
@@ -3101,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.0617440174514</v>
+        <v>-11.0617438943145</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0000000000000000000000000365410159152258</v>
+        <v>0.0000000000000000000000000365410660884645</v>
       </c>
     </row>
     <row r="72">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1.155774928081</v>
+        <v>1.15577492026369</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0775617188397881</v>
+        <v>0.0775617195330156</v>
       </c>
       <c r="I72" t="e">
         <v>#NUM!</v>
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>2.157285258515</v>
+        <v>2.15728512385424</v>
       </c>
       <c r="L72" t="n">
         <v>1</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.834062431610743</v>
+        <v>0.83406243809867</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0687158453534238</v>
+        <v>0.0687158477001589</v>
       </c>
       <c r="I73" t="e">
         <v>#NUM!</v>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>-2.20237622168859</v>
+        <v>-2.20237606918948</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -3203,10 +3203,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.19941421944121</v>
+        <v>1.19941422573164</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0766670408566096</v>
+        <v>0.0766670427160922</v>
       </c>
       <c r="I74" t="e">
         <v>#NUM!</v>
@@ -3215,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.84468303108554</v>
+        <v>2.84468305905846</v>
       </c>
       <c r="L74" t="n">
-        <v>0.844657099455799</v>
+        <v>0.844657025285869</v>
       </c>
     </row>
     <row r="75">
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.721647797807475</v>
+        <v>0.721647808301967</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0448493114217262</v>
+        <v>0.0448493134006414</v>
       </c>
       <c r="I75" t="e">
         <v>#NUM!</v>
@@ -3253,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.24901156976929</v>
+        <v>-5.24901118050249</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0000290543197852686</v>
+        <v>0.0000290543811719412</v>
       </c>
     </row>
     <row r="76">
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1.03775760340525</v>
+        <v>1.03775761586694</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0353136785963111</v>
+        <v>0.0353136794109395</v>
       </c>
       <c r="I76" t="e">
         <v>#NUM!</v>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>1.08914215203765</v>
+        <v>1.08914249287715</v>
       </c>
       <c r="L76" t="n">
         <v>1</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.43803889731001</v>
+        <v>1.43803889366584</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0843960736685838</v>
+        <v>0.0843960764235481</v>
       </c>
       <c r="I77" t="e">
         <v>#NUM!</v>
@@ -3329,10 +3329,10 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>6.18999429207967</v>
+        <v>6.18999403115247</v>
       </c>
       <c r="L77" t="n">
-        <v>0.000000114316148006892</v>
+        <v>0.000000114316337238339</v>
       </c>
     </row>
     <row r="78">
@@ -3355,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1.37716489276137</v>
+        <v>1.37716488172106</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0877918303875367</v>
+        <v>0.0877918311583514</v>
       </c>
       <c r="I78" t="e">
         <v>#NUM!</v>
@@ -3367,10 +3367,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>5.0201697887384</v>
+        <v>5.02016957866037</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0000980890709587888</v>
+        <v>0.0000980891782358898</v>
       </c>
     </row>
     <row r="79">
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.37735187788606</v>
+        <v>1.37735185521605</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0844895811219325</v>
+        <v>0.0844895812424142</v>
       </c>
       <c r="I79" t="e">
         <v>#NUM!</v>
@@ -3405,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>5.2193031004894</v>
+        <v>5.21930273882431</v>
       </c>
       <c r="L79" t="n">
-        <v>0.000034123550880319</v>
+        <v>0.0000341236175096656</v>
       </c>
     </row>
     <row r="80">
@@ -3431,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1.10075367967633</v>
+        <v>1.10075367600091</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0696515582737192</v>
+        <v>0.0696515592723103</v>
       </c>
       <c r="I80" t="e">
         <v>#NUM!</v>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1.5170797547586</v>
+        <v>1.51707967517411</v>
       </c>
       <c r="L80" t="n">
         <v>1</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1.56388425910109</v>
+        <v>1.56388425265315</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0960311197159553</v>
+        <v>0.0960311210545715</v>
       </c>
       <c r="I81" t="e">
         <v>#NUM!</v>
@@ -3481,10 +3481,10 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>7.2822877521834</v>
+        <v>7.28228755350328</v>
       </c>
       <c r="L81" t="n">
-        <v>0.000000000062359152907492</v>
+        <v>0.0000000000623592447741278</v>
       </c>
     </row>
     <row r="82">
@@ -3507,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1.19155110506504</v>
+        <v>1.19155110357202</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0401866057908501</v>
+        <v>0.0401866058602629</v>
       </c>
       <c r="I82" t="e">
         <v>#NUM!</v>
@@ -3519,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>5.19641723262848</v>
+        <v>5.19641717998968</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0000386015388216138</v>
+        <v>0.0000386015497467433</v>
       </c>
     </row>
     <row r="83">
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1.19171288840204</v>
+        <v>1.19171287684787</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0344870462078827</v>
+        <v>0.0344870459738029</v>
       </c>
       <c r="I83" t="e">
         <v>#NUM!</v>
@@ -3557,10 +3557,10 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>6.06072545029597</v>
+        <v>6.06072509764236</v>
       </c>
       <c r="L83" t="n">
-        <v>0.000000257467034491865</v>
+        <v>0.000000257467599044813</v>
       </c>
     </row>
     <row r="84">
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.952394495616876</v>
+        <v>0.952394498878534</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0312753120696304</v>
+        <v>0.031275312348117</v>
       </c>
       <c r="I84" t="e">
         <v>#NUM!</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.48532300363844</v>
+        <v>-1.48532289121076</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1.35310450253295</v>
+        <v>1.35310450610605</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0392976310254127</v>
+        <v>0.0392976312799053</v>
       </c>
       <c r="I85" t="e">
         <v>#NUM!</v>
@@ -3633,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>10.4123565213514</v>
+        <v>10.4123565723402</v>
       </c>
       <c r="L85" t="n">
-        <v>0.000000000000000000000041375028722079</v>
+        <v>0.0000000000000000000000413750065564921</v>
       </c>
     </row>
     <row r="86">
@@ -3659,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.65115324772726</v>
+        <v>1.65115322164662</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0965801306080495</v>
+        <v>0.0965801322368671</v>
       </c>
       <c r="I86" t="e">
         <v>#NUM!</v>
@@ -3671,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>8.57329958515282</v>
+        <v>8.57329903510453</v>
       </c>
       <c r="L86" t="n">
-        <v>0.00000000000000191066770741743</v>
+        <v>0.00000000000000191067683708572</v>
       </c>
     </row>
     <row r="87">
@@ -3697,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1.65137743373252</v>
+        <v>1.65137739370671</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0922496200830342</v>
+        <v>0.0922496211215605</v>
       </c>
       <c r="I87" t="e">
         <v>#NUM!</v>
@@ -3709,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>8.97940845288217</v>
+        <v>8.97940770026662</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0000000000000000517230143733862</v>
+        <v>0.0000000000000000517233681546938</v>
       </c>
     </row>
     <row r="88">
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1.31974974289461</v>
+        <v>1.31974972822201</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0765170759070737</v>
+        <v>0.0765170776566646</v>
       </c>
       <c r="I88" t="e">
         <v>#NUM!</v>
@@ -3747,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>4.78526100577484</v>
+        <v>4.78526065140115</v>
       </c>
       <c r="L88" t="n">
-        <v>0.000324454021579227</v>
+        <v>0.000324454594060129</v>
       </c>
     </row>
     <row r="89">
@@ -3773,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1.8750206217548</v>
+        <v>1.87502059943879</v>
       </c>
       <c r="H89" t="n">
-        <v>0.104867529101425</v>
+        <v>0.104867531594842</v>
       </c>
       <c r="I89" t="e">
         <v>#NUM!</v>
@@ -3785,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>11.239654747265</v>
+        <v>11.2396541334485</v>
       </c>
       <c r="L89" t="n">
-        <v>0.00000000000000000000000000494757596557188</v>
+        <v>0.00000000000000000000000000494761036551725</v>
       </c>
     </row>
     <row r="90">
@@ -3811,10 +3811,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>1.14819790397597</v>
+        <v>1.14819788874939</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0307921361998753</v>
+        <v>0.0307921362353805</v>
       </c>
       <c r="I90" t="e">
         <v>#NUM!</v>
@@ -3823,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>5.1530587210053</v>
+        <v>5.15305815223167</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0000486916180251492</v>
+        <v>0.000048691765766762</v>
       </c>
     </row>
     <row r="91">
@@ -3849,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1.14835380101442</v>
+        <v>1.14835377609088</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0234991291255287</v>
+        <v>0.0234991291431435</v>
       </c>
       <c r="I91" t="e">
         <v>#NUM!</v>
@@ -3861,10 +3861,10 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>6.75987338681569</v>
+        <v>6.75987217441871</v>
       </c>
       <c r="L91" t="n">
-        <v>0.00000000262413525640053</v>
+        <v>0.00000000262415721497998</v>
       </c>
     </row>
     <row r="92">
@@ -3887,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.917742729604416</v>
+        <v>0.917742721726891</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0235731136074498</v>
+        <v>0.0235731138652394</v>
       </c>
       <c r="I92" t="e">
         <v>#NUM!</v>
@@ -3899,10 +3899,10 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>-3.34183110717233</v>
+        <v>-3.34183137611617</v>
       </c>
       <c r="L92" t="n">
-        <v>0.158132602667692</v>
+        <v>0.158132449456502</v>
       </c>
     </row>
     <row r="93">
@@ -3925,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1.30387336897646</v>
+        <v>1.30387335676228</v>
       </c>
       <c r="H93" t="n">
-        <v>0.026896529883833</v>
+        <v>0.0268965302776649</v>
       </c>
       <c r="I93" t="e">
         <v>#NUM!</v>
@@ -3937,10 +3937,10 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>12.8629571375276</v>
+        <v>12.8629563745693</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0000000000000000000000000000000000138205423489879</v>
+        <v>0.0000000000000000000000000000000000138206787932115</v>
       </c>
     </row>
     <row r="94">
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>1.42503467118919</v>
+        <v>1.42503466294491</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0954634953872993</v>
+        <v>0.0954634963353516</v>
       </c>
       <c r="I94" t="e">
         <v>#NUM!</v>
@@ -3975,10 +3975,10 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>5.28727534722096</v>
+        <v>5.2872751777636</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0000235888210978005</v>
+        <v>0.0000235888429423063</v>
       </c>
     </row>
     <row r="95">
@@ -4001,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1.44767010122558</v>
+        <v>1.4476700807448</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0894176903630198</v>
+        <v>0.0894176906695118</v>
       </c>
       <c r="I95" t="e">
         <v>#NUM!</v>
@@ -4013,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>5.98956899108915</v>
+        <v>5.98956865677592</v>
       </c>
       <c r="L95" t="n">
-        <v>0.000000399755947622881</v>
+        <v>0.000000399756769305551</v>
       </c>
     </row>
     <row r="96">
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>1.299327161065</v>
+        <v>1.29932716033575</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0882036590571167</v>
+        <v>0.0882036605199104</v>
       </c>
       <c r="I96" t="e">
         <v>#NUM!</v>
@@ -4051,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>3.85725891383113</v>
+        <v>3.85725883942858</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0217864799761626</v>
+        <v>0.0217864866054677</v>
       </c>
     </row>
     <row r="97">
@@ -4077,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>1.56123631536169</v>
+        <v>1.56123631229619</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0970617886898815</v>
+        <v>0.0970617902305004</v>
       </c>
       <c r="I97" t="e">
         <v>#NUM!</v>
@@ -4089,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>7.16550217748756</v>
+        <v>7.1655020181002</v>
       </c>
       <c r="L97" t="n">
-        <v>0.000000000147253657460849</v>
+        <v>0.000000000147253828796726</v>
       </c>
     </row>
     <row r="98">
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>1.23296901201626</v>
+        <v>1.23296901322257</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0486742690808718</v>
+        <v>0.0486742693047744</v>
       </c>
       <c r="I98" t="e">
         <v>#NUM!</v>
@@ -4127,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>5.30495173852867</v>
+        <v>5.30495174409922</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0000214135338785798</v>
+        <v>0.0000214135332246628</v>
       </c>
     </row>
     <row r="99">
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1.25255364695377</v>
+        <v>1.25255363770527</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0372829491929659</v>
+        <v>0.0372829490088605</v>
       </c>
       <c r="I99" t="e">
         <v>#NUM!</v>
@@ -4165,10 +4165,10 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>7.56526854024868</v>
+        <v>7.56526827368417</v>
       </c>
       <c r="L99" t="n">
-        <v>0.00000000000735421875880681</v>
+        <v>0.00000000000735423384035169</v>
       </c>
     </row>
     <row r="100">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1.12420431478156</v>
+        <v>1.12420432175437</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0460660173646944</v>
+        <v>0.0460660180377663</v>
       </c>
       <c r="I100" t="e">
         <v>#NUM!</v>
@@ -4203,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>2.85713418816613</v>
+        <v>2.85713431550731</v>
       </c>
       <c r="L100" t="n">
-        <v>0.812221636253141</v>
+        <v>0.812221310384406</v>
       </c>
     </row>
     <row r="101">
@@ -4229,10 +4229,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1.350813447696</v>
+        <v>1.35081345418016</v>
       </c>
       <c r="H101" t="n">
-        <v>0.041325525971399</v>
+        <v>0.0413255263487006</v>
       </c>
       <c r="I101" t="e">
         <v>#NUM!</v>
@@ -4241,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>9.82925207529572</v>
+        <v>9.82925218964142</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0000000000000000000160059940574178</v>
+        <v>0.0000000000000000000160059758852347</v>
       </c>
     </row>
     <row r="102">
@@ -4267,10 +4267,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.7085467672212</v>
+        <v>1.70854674404643</v>
       </c>
       <c r="H102" t="n">
-        <v>0.105958589148008</v>
+        <v>0.10595859085373</v>
       </c>
       <c r="I102" t="e">
         <v>#NUM!</v>
@@ -4279,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>8.63706667004133</v>
+        <v>8.63706619513292</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0000000000000010958198597874</v>
+        <v>0.00000000000000109582441338458</v>
       </c>
     </row>
     <row r="103">
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1.73568553906671</v>
+        <v>1.73568550100986</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0977722175083834</v>
+        <v>0.0977722187725232</v>
       </c>
       <c r="I103" t="e">
         <v>#NUM!</v>
@@ -4317,10 +4317,10 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>9.78868331137066</v>
+        <v>9.7886825809408</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0000000000000000000239257443647416</v>
+        <v>0.0000000000000000000239259171830309</v>
       </c>
     </row>
     <row r="104">
@@ -4343,10 +4343,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1.55782962020689</v>
+        <v>1.55782960721465</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0981217169513705</v>
+        <v>0.098121719164838</v>
       </c>
       <c r="I104" t="e">
         <v>#NUM!</v>
@@ -4355,10 +4355,10 @@
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>7.03795139549053</v>
+        <v>7.0379510456201</v>
       </c>
       <c r="L104" t="n">
-        <v>0.000000000370664747328326</v>
+        <v>0.000000000370665677791738</v>
       </c>
     </row>
     <row r="105">
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1.87184586691745</v>
+        <v>1.87184584868153</v>
       </c>
       <c r="H105" t="n">
-        <v>0.106276121770079</v>
+        <v>0.106276124443242</v>
       </c>
       <c r="I105" t="e">
         <v>#NUM!</v>
@@ -4393,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>11.0420574523931</v>
+        <v>11.0420568954881</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0000000000000000000000000455022856979087</v>
+        <v>0.0000000000000000000000000455025677682167</v>
       </c>
     </row>
     <row r="106">
@@ -4419,10 +4419,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>1.18810886855509</v>
+        <v>1.18810885545036</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0401197812615351</v>
+        <v>0.0401197812640412</v>
       </c>
       <c r="I106" t="e">
         <v>#NUM!</v>
@@ -4431,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>5.10436080407581</v>
+        <v>5.1043604208162</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0000630637505990689</v>
+        <v>0.0000630638783972056</v>
       </c>
     </row>
     <row r="107">
@@ -4457,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>1.20698093932889</v>
+        <v>1.20698091592312</v>
       </c>
       <c r="H107" t="n">
-        <v>0.026112615793376</v>
+        <v>0.0261126157985046</v>
       </c>
       <c r="I107" t="e">
         <v>#NUM!</v>
@@ -4469,10 +4469,10 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>8.69540805003643</v>
+        <v>8.6954069833678</v>
       </c>
       <c r="L107" t="n">
-        <v>0.000000000000000656612588122655</v>
+        <v>0.000000000000000656618756856094</v>
       </c>
     </row>
     <row r="108">
@@ -4495,10 +4495,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>1.08330144832728</v>
+        <v>1.0833014420378</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0384607318618522</v>
+        <v>0.0384607322833642</v>
       </c>
       <c r="I108" t="e">
         <v>#NUM!</v>
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>2.25368817539128</v>
+        <v>2.25368797407761</v>
       </c>
       <c r="L108" t="n">
         <v>1</v>
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>1.30166567150508</v>
+        <v>1.30166566212255</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0296155279364301</v>
+        <v>0.0296155283554469</v>
       </c>
       <c r="I109" t="e">
         <v>#NUM!</v>
@@ -4545,10 +4545,10 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>11.5877486760954</v>
+        <v>11.5877481118088</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0000000000000000000000000000903385151234841</v>
+        <v>0.0000000000000000000000000000903391101678728</v>
       </c>
     </row>
     <row r="110">
@@ -4571,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1.27460152603089</v>
+        <v>1.27460151638784</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0794268930871801</v>
+        <v>0.0794268938799838</v>
       </c>
       <c r="I110" t="e">
         <v>#NUM!</v>
@@ -4583,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>3.89365800781562</v>
+        <v>3.89365781808533</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0187613283841767</v>
+        <v>0.0187613430651206</v>
       </c>
     </row>
     <row r="111">
@@ -4609,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1.34274188800059</v>
+        <v>1.34274186260323</v>
       </c>
       <c r="H111" t="n">
-        <v>0.082183319484884</v>
+        <v>0.0821833194105551</v>
       </c>
       <c r="I111" t="e">
         <v>#NUM!</v>
@@ -4621,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>4.81514307024308</v>
+        <v>4.81514267448871</v>
       </c>
       <c r="L111" t="n">
-        <v>0.00027947948120072</v>
+        <v>0.000279480035099139</v>
       </c>
     </row>
     <row r="112">
@@ -4647,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>1.25112888484604</v>
+        <v>1.25112887931518</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0780328704386808</v>
+        <v>0.0780328714788898</v>
       </c>
       <c r="I112" t="e">
         <v>#NUM!</v>
@@ -4659,10 +4659,10 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>3.59221358109161</v>
+        <v>3.59221344644722</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0622973791885935</v>
+        <v>0.0622974113855164</v>
       </c>
     </row>
     <row r="113">
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.46495719529003</v>
+        <v>1.46495719226714</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0896976376982369</v>
+        <v>0.0896976391399507</v>
       </c>
       <c r="I113" t="e">
         <v>#NUM!</v>
@@ -4697,10 +4697,10 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>6.23604807532846</v>
+        <v>6.23604792852742</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0000000852650150473633</v>
+        <v>0.0000000852650950191669</v>
       </c>
     </row>
     <row r="114">
@@ -4723,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>1.10281119192228</v>
+        <v>1.102811191038</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0340346145713943</v>
+        <v>0.0340346146598582</v>
       </c>
       <c r="I114" t="e">
         <v>#NUM!</v>
@@ -4735,10 +4735,10 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>3.17100444354567</v>
+        <v>3.17100440677885</v>
       </c>
       <c r="L114" t="n">
-        <v>0.288634356761927</v>
+        <v>0.288634393294126</v>
       </c>
     </row>
     <row r="115">
@@ -4761,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>1.16176762047436</v>
+        <v>1.16176760635789</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0331762424427963</v>
+        <v>0.0331762421443357</v>
       </c>
       <c r="I115" t="e">
         <v>#NUM!</v>
@@ -4773,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>5.25070079975959</v>
+        <v>5.25070035769608</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0000287891091784175</v>
+        <v>0.000028789178275554</v>
       </c>
     </row>
     <row r="116">
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1.08250218485304</v>
+        <v>1.08250218738934</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0335326205097067</v>
+        <v>0.0335326207334259</v>
       </c>
       <c r="I116" t="e">
         <v>#NUM!</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>2.55916701615847</v>
+        <v>2.55916708071735</v>
       </c>
       <c r="L116" t="n">
         <v>1</v>
@@ -4837,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>1.26751079271324</v>
+        <v>1.26751079867083</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0362602731155769</v>
+        <v>0.0362602734231606</v>
       </c>
       <c r="I117" t="e">
         <v>#NUM!</v>
@@ -4849,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>8.28647191289348</v>
+        <v>8.28647204585117</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0000000000000221648732354596</v>
+        <v>0.0000000000000221648484693568</v>
       </c>
     </row>
     <row r="118">
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1.52818479495519</v>
+        <v>1.52818477150634</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0869428432703933</v>
+        <v>0.0869428449367473</v>
       </c>
       <c r="I118" t="e">
         <v>#NUM!</v>
@@ -4887,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>7.45401846570722</v>
+        <v>7.45401793876236</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0000000000172024703646077</v>
+        <v>0.0000000000172025391093868</v>
       </c>
     </row>
     <row r="119">
@@ -4913,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1.60988175118676</v>
+        <v>1.60988170821377</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0896391228311814</v>
+        <v>0.0896391236487051</v>
       </c>
       <c r="I119" t="e">
         <v>#NUM!</v>
@@ -4925,10 +4925,10 @@
         <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>8.55165072320806</v>
+        <v>8.55164993754422</v>
       </c>
       <c r="L119" t="n">
-        <v>0.00000000000000230546931390786</v>
+        <v>0.00000000000000230548501014742</v>
       </c>
     </row>
     <row r="120">
@@ -4951,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1.50004224795242</v>
+        <v>1.5000422296528</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0854391438670914</v>
+        <v>0.0854391457905684</v>
       </c>
       <c r="I120" t="e">
         <v>#NUM!</v>
@@ -4963,10 +4963,10 @@
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>7.11918464125092</v>
+        <v>7.11918417994495</v>
       </c>
       <c r="L120" t="n">
-        <v>0.000000000206278039229484</v>
+        <v>0.000000000206278729557426</v>
       </c>
     </row>
     <row r="121">
@@ -4989,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1.75641191806338</v>
+        <v>1.75641190077646</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0978236801177131</v>
+        <v>0.0978236826727853</v>
       </c>
       <c r="I121" t="e">
         <v>#NUM!</v>
@@ -5001,10 +5001,10 @@
         <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>10.1134969416701</v>
+        <v>10.1134964012602</v>
       </c>
       <c r="L121" t="n">
-        <v>0.000000000000000000000914561999073666</v>
+        <v>0.000000000000000000000914567045521919</v>
       </c>
     </row>
     <row r="122">
@@ -5027,10 +5027,10 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1.06268668936133</v>
+        <v>1.06268667574818</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0246064506528271</v>
+        <v>0.0246064508080978</v>
       </c>
       <c r="I122" t="e">
         <v>#NUM!</v>
@@ -5039,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>2.62580269398641</v>
+        <v>2.62580209054517</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>1.11949805683156</v>
+        <v>1.11949802978546</v>
       </c>
       <c r="H123" t="n">
-        <v>0.022372195676581</v>
+        <v>0.0223721956725933</v>
       </c>
       <c r="I123" t="e">
         <v>#NUM!</v>
@@ -5077,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>5.6485029067323</v>
+        <v>5.64850156236005</v>
       </c>
       <c r="L123" t="n">
-        <v>0.00000307517120316517</v>
+        <v>0.00000307519524707434</v>
       </c>
     </row>
     <row r="124">
@@ -5103,10 +5103,10 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>1.04311660189332</v>
+        <v>1.0431165918113</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0243118305451653</v>
+        <v>0.0243118308098959</v>
       </c>
       <c r="I124" t="e">
         <v>#NUM!</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1.81117764839962</v>
+        <v>1.81117719647621</v>
       </c>
       <c r="L124" t="n">
         <v>1</v>
@@ -5141,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1.22139388673625</v>
+        <v>1.22139387781024</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0244861632155054</v>
+        <v>0.0244861636523226</v>
       </c>
       <c r="I125" t="e">
         <v>#NUM!</v>
@@ -5153,10 +5153,10 @@
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>9.97583426221989</v>
+        <v>9.97583364682072</v>
       </c>
       <c r="L125" t="n">
-        <v>0.00000000000000000000369474558802213</v>
+        <v>0.00000000000000000000369476849413832</v>
       </c>
     </row>
     <row r="126">
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1.00013577540763</v>
+        <v>1.00013576696405</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0192806303100428</v>
+        <v>0.019280630144619</v>
       </c>
       <c r="I126" t="e">
         <v>#NUM!</v>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>0.00704254075242351</v>
+        <v>0.00704210282296649</v>
       </c>
       <c r="L126" t="n">
         <v>1</v>
@@ -5217,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.799289675086905</v>
+        <v>0.799289678825739</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0197753798616798</v>
+        <v>0.0197753800648918</v>
       </c>
       <c r="I127" t="e">
         <v>#NUM!</v>
@@ -5229,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>-9.05501423229071</v>
+        <v>-9.05501399253283</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0000000000000000259444959124296</v>
+        <v>0.0000000000000000259445529094173</v>
       </c>
     </row>
     <row r="128">
@@ -5255,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1.13558243266376</v>
+        <v>1.13558243708535</v>
       </c>
       <c r="H128" t="n">
-        <v>0.02192327451699</v>
+        <v>0.0219232746467873</v>
       </c>
       <c r="I128" t="e">
         <v>#NUM!</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>6.58589554071637</v>
+        <v>6.58589572905201</v>
       </c>
       <c r="L128" t="n">
-        <v>0.00000000859088128537691</v>
+        <v>0.00000000859087039414207</v>
       </c>
     </row>
     <row r="129">
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.799181165938332</v>
+        <v>0.799181176423688</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0141602295714447</v>
+        <v>0.0141602298686374</v>
       </c>
       <c r="I129" t="e">
         <v>#NUM!</v>
@@ -5305,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>-12.6516690615695</v>
+        <v>-12.6516682215505</v>
       </c>
       <c r="L129" t="n">
-        <v>0.000000000000000000000000000000000208093837960387</v>
+        <v>0.000000000000000000000000000000000208096063168293</v>
       </c>
     </row>
     <row r="130">
@@ -5331,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>1.13542826942765</v>
+        <v>1.1354282834344</v>
       </c>
       <c r="H130" t="n">
-        <v>0.00988652395823303</v>
+        <v>0.00988652405342971</v>
       </c>
       <c r="I130" t="e">
         <v>#NUM!</v>
@@ -5343,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>14.5865870075736</v>
+        <v>14.5865884638138</v>
       </c>
       <c r="L130" t="n">
-        <v>0.000000000000000000000000000000000000000000000649568665621974</v>
+        <v>0.000000000000000000000000000000000000000000000649554803654123</v>
       </c>
     </row>
     <row r="131">
@@ -5369,10 +5369,10 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>1.42073952417851</v>
+        <v>1.42073952306461</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0252584534014693</v>
+        <v>0.0252584536431926</v>
       </c>
       <c r="I131" t="e">
         <v>#NUM!</v>
@@ -5381,10 +5381,10 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>19.7530619040476</v>
+        <v>19.7530616554238</v>
       </c>
       <c r="L131" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000001434473734222</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000143448079701851</v>
       </c>
     </row>
     <row r="132">
@@ -5407,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>1.03475965636318</v>
+        <v>1.03475965867212</v>
       </c>
       <c r="H132" t="n">
-        <v>0.0341953719229633</v>
+        <v>0.0341953720986904</v>
       </c>
       <c r="I132" t="e">
         <v>#NUM!</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>1.0339671941352</v>
+        <v>1.03396725865085</v>
       </c>
       <c r="L132" t="n">
         <v>1</v>
@@ -5445,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1.05119590895382</v>
+        <v>1.05119590250924</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0214802274752759</v>
+        <v>0.0214802273277443</v>
       </c>
       <c r="I133" t="e">
         <v>#NUM!</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="K133" t="n">
-        <v>2.44339175526333</v>
+        <v>2.44339145704159</v>
       </c>
       <c r="L133" t="n">
         <v>1</v>
@@ -5483,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.943479729910699</v>
+        <v>0.94347973694476</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0328574191664578</v>
+        <v>0.0328574197269346</v>
       </c>
       <c r="I134" t="e">
         <v>#NUM!</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>-1.67061284484384</v>
+        <v>-1.67061261472362</v>
       </c>
       <c r="L134" t="n">
         <v>1</v>
@@ -5521,10 +5521,10 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>1.13365968270599</v>
+        <v>1.13365968956825</v>
       </c>
       <c r="H135" t="n">
-        <v>0.024547304897392</v>
+        <v>0.0245473051289887</v>
       </c>
       <c r="I135" t="e">
         <v>#NUM!</v>
@@ -5533,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>5.79366272091253</v>
+        <v>5.79366298087353</v>
       </c>
       <c r="L135" t="n">
-        <v>0.00000130848621868657</v>
+        <v>0.00000130848419229838</v>
       </c>
     </row>
     <row r="136">
@@ -5559,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>1.0346191805222</v>
+        <v>1.03461919156553</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0291482279613234</v>
+        <v>0.0291482283536634</v>
       </c>
       <c r="I136" t="e">
         <v>#NUM!</v>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="K136" t="n">
-        <v>1.20801945683457</v>
+        <v>1.20801983233633</v>
       </c>
       <c r="L136" t="n">
         <v>1</v>
@@ -5597,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>1.05105320177691</v>
+        <v>1.05105320420665</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0115167201159291</v>
+        <v>0.0115167200206156</v>
       </c>
       <c r="I137" t="e">
         <v>#NUM!</v>
@@ -5609,10 +5609,10 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>4.54424415508431</v>
+        <v>4.5442444141726</v>
       </c>
       <c r="L137" t="n">
-        <v>0.00104752177345834</v>
+        <v>0.0010475204851583</v>
       </c>
     </row>
     <row r="138">
@@ -5635,10 +5635,10 @@
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>0.943351645956433</v>
+        <v>0.943351660953718</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0285242924047488</v>
+        <v>0.0285242931911736</v>
       </c>
       <c r="I138" t="e">
         <v>#NUM!</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-1.92862452156715</v>
+        <v>-1.92862397328295</v>
       </c>
       <c r="L138" t="n">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1.1335057804966</v>
+        <v>1.13350579692746</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0147890675518544</v>
+        <v>0.0147890678201677</v>
       </c>
       <c r="I139" t="e">
         <v>#NUM!</v>
@@ -5685,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="K139" t="n">
-        <v>9.60477094500746</v>
+        <v>9.60477202099268</v>
       </c>
       <c r="L139" t="n">
-        <v>0.000000000000000000145022153427111</v>
+        <v>0.000000000000000000145020638778463</v>
       </c>
     </row>
     <row r="140">
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1.29459905290366</v>
+        <v>1.29459904973665</v>
       </c>
       <c r="H140" t="n">
-        <v>0.0416431306859952</v>
+        <v>0.0416431308134974</v>
       </c>
       <c r="I140" t="e">
         <v>#NUM!</v>
@@ -5723,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>8.02693771052194</v>
+        <v>8.02693759025775</v>
       </c>
       <c r="L140" t="n">
-        <v>0.00000000000018987800576075</v>
+        <v>0.000000000000189878191822906</v>
       </c>
     </row>
     <row r="141">
@@ -5749,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.31516262716583</v>
+        <v>1.31516261295102</v>
       </c>
       <c r="H141" t="n">
-        <v>0.0249685758202206</v>
+        <v>0.0249685757039977</v>
       </c>
       <c r="I141" t="e">
         <v>#NUM!</v>
@@ -5761,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>14.4302337626191</v>
+        <v>14.4302331045124</v>
       </c>
       <c r="L141" t="n">
-        <v>0.00000000000000000000000000000000000000000000634499999998369</v>
+        <v>0.00000000000000000000000000000000000000000000634506054306834</v>
       </c>
     </row>
     <row r="142">
@@ -5787,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>1.18039774479523</v>
+        <v>1.18039774807408</v>
       </c>
       <c r="H142" t="n">
-        <v>0.0401316531828869</v>
+        <v>0.0401316537865375</v>
       </c>
       <c r="I142" t="e">
         <v>#NUM!</v>
@@ -5799,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>4.87821124237792</v>
+        <v>4.87821126425382</v>
       </c>
       <c r="L142" t="n">
-        <v>0.000203399257288796</v>
+        <v>0.000203399234735054</v>
       </c>
     </row>
     <row r="143">
@@ -5825,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>1.41833395080792</v>
+        <v>1.41833395275884</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0287596560534849</v>
+        <v>0.0287596563803195</v>
       </c>
       <c r="I143" t="e">
         <v>#NUM!</v>
@@ -5837,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>17.2353756153334</v>
+        <v>17.2353755110067</v>
       </c>
       <c r="L143" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000273817024629304</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000273817518628985</v>
       </c>
     </row>
     <row r="144">
@@ -5863,10 +5863,10 @@
         <v>0</v>
       </c>
       <c r="G144" t="n">
-        <v>0.911214920730956</v>
+        <v>0.911214919216251</v>
       </c>
       <c r="H144" t="n">
-        <v>0.025686156812755</v>
+        <v>0.0256861568679247</v>
       </c>
       <c r="I144" t="e">
         <v>#NUM!</v>
@@ -5875,10 +5875,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="n">
-        <v>-3.29833565834647</v>
+        <v>-3.29833570474907</v>
       </c>
       <c r="L144" t="n">
-        <v>0.184793609291708</v>
+        <v>0.184793578750432</v>
       </c>
     </row>
     <row r="145">
@@ -5901,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>0.925688773194564</v>
+        <v>0.925688763915107</v>
       </c>
       <c r="H145" t="n">
-        <v>0.0101132956516232</v>
+        <v>0.0101132955116571</v>
       </c>
       <c r="I145" t="e">
         <v>#NUM!</v>
@@ -5913,10 +5913,10 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.06783392612573</v>
+        <v>-7.06783487064276</v>
       </c>
       <c r="L145" t="n">
-        <v>0.000000000299004367529711</v>
+        <v>0.000000000299002332978104</v>
       </c>
     </row>
     <row r="146">
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>0.830833326381736</v>
+        <v>0.830833329340979</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0251446023903458</v>
+        <v>0.0251446027957421</v>
       </c>
       <c r="I146" t="e">
         <v>#NUM!</v>
@@ -5951,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>-6.12358375316417</v>
+        <v>-6.12358355855793</v>
       </c>
       <c r="L146" t="n">
-        <v>0.000000173838080631188</v>
+        <v>0.000000173838293054943</v>
       </c>
     </row>
     <row r="147">
@@ -5977,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>0.998306816042177</v>
+        <v>0.998306818198043</v>
       </c>
       <c r="H147" t="n">
-        <v>0.0130642795163633</v>
+        <v>0.0130642796542562</v>
       </c>
       <c r="I147" t="e">
         <v>#NUM!</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.129494298559456</v>
+        <v>-0.129494132452437</v>
       </c>
       <c r="L147" t="n">
         <v>1</v>
@@ -6015,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.925525717893644</v>
+        <v>0.9255257183112</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0208053686970006</v>
+        <v>0.0208053687401913</v>
       </c>
       <c r="I148" t="e">
         <v>#NUM!</v>
@@ -6027,10 +6027,10 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>-3.44283946227826</v>
+        <v>-3.44283943661478</v>
       </c>
       <c r="L148" t="n">
-        <v>0.109371773911958</v>
+        <v>0.109371784290392</v>
       </c>
     </row>
     <row r="149">
@@ -6053,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>0.975004442139268</v>
+        <v>0.975004431513812</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0187403728386127</v>
+        <v>0.0187403726422338</v>
       </c>
       <c r="I149" t="e">
         <v>#NUM!</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>-1.31697129577234</v>
+        <v>-1.31697186220273</v>
       </c>
       <c r="L149" t="n">
         <v>1</v>
@@ -6091,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>0.908481541623812</v>
+        <v>0.90848154489071</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0205644122712162</v>
+        <v>0.0205644124147461</v>
       </c>
       <c r="I150" t="e">
         <v>#NUM!</v>
@@ -6103,10 +6103,10 @@
         <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>-4.2401747796986</v>
+        <v>-4.2401746064901</v>
       </c>
       <c r="L150" t="n">
-        <v>0.00424357044365302</v>
+        <v>0.00424357371822794</v>
       </c>
     </row>
     <row r="151">
@@ -6129,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>1.06374857723291</v>
+        <v>1.06374858356565</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0204848197474275</v>
+        <v>0.0204848199068199</v>
       </c>
       <c r="I151" t="e">
         <v>#NUM!</v>
@@ -6141,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>3.20914055285809</v>
+        <v>3.20914085613564</v>
       </c>
       <c r="L151" t="n">
-        <v>0.252951548449327</v>
+        <v>0.25295128162537</v>
       </c>
     </row>
     <row r="152">
@@ -6167,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.925400071321742</v>
+        <v>0.925400079551865</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0133095785095338</v>
+        <v>0.0133095786188316</v>
       </c>
       <c r="I152" t="e">
         <v>#NUM!</v>
@@ -6179,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>-5.39051316752291</v>
+        <v>-5.3905125528363</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0000133487857930359</v>
+        <v>0.0000133488314559343</v>
       </c>
     </row>
     <row r="153">
@@ -6205,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.974872078485427</v>
+        <v>0.974872076091701</v>
       </c>
       <c r="H153" t="n">
-        <v>0.0082018677328247</v>
+        <v>0.00820186761956373</v>
       </c>
       <c r="I153" t="e">
         <v>#NUM!</v>
@@ -6217,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>-3.02486433858286</v>
+        <v>-3.02486466477774</v>
       </c>
       <c r="L153" t="n">
-        <v>0.47261487861765</v>
+        <v>0.472614368916241</v>
       </c>
     </row>
     <row r="154">
@@ -6243,10 +6243,10 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.908358208917724</v>
+        <v>0.908358219852928</v>
       </c>
       <c r="H154" t="n">
-        <v>0.0132839696793151</v>
+        <v>0.0132839698870662</v>
       </c>
       <c r="I154" t="e">
         <v>#NUM!</v>
@@ -6255,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.57244717903954</v>
+        <v>-6.57244633218544</v>
       </c>
       <c r="L154" t="n">
-        <v>0.00000000940404022312229</v>
+        <v>0.00000000940409372643213</v>
       </c>
     </row>
     <row r="155">
@@ -6281,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1.06360416594373</v>
+        <v>1.06360418125501</v>
       </c>
       <c r="H155" t="n">
-        <v>0.00904766489873115</v>
+        <v>0.00904766499354724</v>
       </c>
       <c r="I155" t="e">
         <v>#NUM!</v>
@@ -6293,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>7.24886924248458</v>
+        <v>7.24887096316262</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0000000000798504181907853</v>
+        <v>0.0000000000798494039319881</v>
       </c>
     </row>
     <row r="156">
@@ -6319,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1.15793528521811</v>
+        <v>1.15793528032405</v>
       </c>
       <c r="H156" t="n">
-        <v>0.0244980685004934</v>
+        <v>0.0244980685798317</v>
       </c>
       <c r="I156" t="e">
         <v>#NUM!</v>
@@ -6331,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>6.93107233269806</v>
+        <v>6.93107208118363</v>
       </c>
       <c r="L156" t="n">
-        <v>0.000000000793558583513293</v>
+        <v>0.000000000793559994603618</v>
       </c>
     </row>
     <row r="157">
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>1.21983865490726</v>
+        <v>1.2198386359076</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0215303746669423</v>
+        <v>0.0215303745165763</v>
       </c>
       <c r="I157" t="e">
         <v>#NUM!</v>
@@ -6369,10 +6369,10 @@
         <v>1</v>
       </c>
       <c r="K157" t="n">
-        <v>11.2587278849225</v>
+        <v>11.2587269057332</v>
       </c>
       <c r="L157" t="n">
-        <v>0.00000000000000000000000000398553143381022</v>
+        <v>0.00000000000000000000000000398557571361345</v>
       </c>
     </row>
     <row r="158">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1.13661113103336</v>
+        <v>1.13661112980389</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0242350031711842</v>
+        <v>0.0242350033717519</v>
       </c>
       <c r="I158" t="e">
         <v>#NUM!</v>
@@ -6407,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="K158" t="n">
-        <v>6.00554303900671</v>
+        <v>6.00554293207782</v>
       </c>
       <c r="L158" t="n">
-        <v>0.00000036231588291619</v>
+        <v>0.000000362316121718028</v>
       </c>
     </row>
     <row r="159">
@@ -6433,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1.33086740688506</v>
+        <v>1.33086740858263</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0235489958260285</v>
+        <v>0.0235489960964319</v>
       </c>
       <c r="I159" t="e">
         <v>#NUM!</v>
@@ -6445,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>16.1536845068793</v>
+        <v>16.1536844140845</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000203255160218834</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000203255466053039</v>
       </c>
     </row>
     <row r="160">
@@ -6471,10 +6471,10 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.815022926801196</v>
+        <v>0.81502292399547</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0118173566154823</v>
+        <v>0.0118173566125723</v>
       </c>
       <c r="I160" t="e">
         <v>#NUM!</v>
@@ -6483,10 +6483,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>-14.1067083316927</v>
+        <v>-14.1067085240281</v>
       </c>
       <c r="L160" t="n">
-        <v>0.000000000000000000000000000000000000000000656116226451504</v>
+        <v>0.00000000000000000000000000000000000000000065611443740827</v>
       </c>
     </row>
     <row r="161">
@@ -6509,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="G161" t="n">
-        <v>0.858594157583237</v>
+        <v>0.858594144883323</v>
       </c>
       <c r="H161" t="n">
-        <v>0.00740845367785869</v>
+        <v>0.00740845356883614</v>
       </c>
       <c r="I161" t="e">
         <v>#NUM!</v>
@@ -6521,10 +6521,10 @@
         <v>1</v>
       </c>
       <c r="K161" t="n">
-        <v>-17.6690508400741</v>
+        <v>-17.6690525529854</v>
       </c>
       <c r="L161" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000137955739252524</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000137951550724459</v>
       </c>
     </row>
     <row r="162">
@@ -6547,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.800013733474868</v>
+        <v>0.800013733236729</v>
       </c>
       <c r="H162" t="n">
-        <v>0.011794659120855</v>
+        <v>0.0117946592033561</v>
       </c>
       <c r="I162" t="e">
         <v>#NUM!</v>
@@ -6559,10 +6559,10 @@
         <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.1343222526327</v>
+        <v>-15.1343221624569</v>
       </c>
       <c r="L162" t="n">
-        <v>0.000000000000000000000000000000000000000000000000182715999524373</v>
+        <v>0.000000000000000000000000000000000000000000000000182716249965639</v>
       </c>
     </row>
     <row r="163">
@@ -6585,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0.936742720418501</v>
+        <v>0.936742722347782</v>
       </c>
       <c r="H163" t="n">
-        <v>0.00815126227193364</v>
+        <v>0.00815126234550666</v>
       </c>
       <c r="I163" t="e">
         <v>#NUM!</v>
@@ -6597,10 +6597,10 @@
         <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.50962997720604</v>
+        <v>-7.50962968820599</v>
       </c>
       <c r="L163" t="n">
-        <v>0.0000000000112659969746976</v>
+        <v>0.0000000000112660218445245</v>
       </c>
     </row>
     <row r="164">
@@ -6623,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>1.01588412583499</v>
+        <v>1.01588411734007</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0288500997098938</v>
+        <v>0.0288500995405883</v>
       </c>
       <c r="I164" t="e">
         <v>#NUM!</v>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="K164" t="n">
-        <v>0.554924108950215</v>
+        <v>0.554923813116376</v>
       </c>
       <c r="L164" t="n">
         <v>1</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.911786349717869</v>
+        <v>0.911786354481104</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0363078418948115</v>
+        <v>0.0363078424045899</v>
       </c>
       <c r="I165" t="e">
         <v>#NUM!</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.3191433003679</v>
+        <v>-2.31914314873121</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6699,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>1.09557777570341</v>
+        <v>1.0955777798905</v>
       </c>
       <c r="H166" t="n">
-        <v>0.0318665339435186</v>
+        <v>0.0318665342124215</v>
       </c>
       <c r="I166" t="e">
         <v>#NUM!</v>
@@ -6711,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>3.1382889563798</v>
+        <v>3.13828907328628</v>
       </c>
       <c r="L166" t="n">
-        <v>0.322880794706146</v>
+        <v>0.3228806659168</v>
       </c>
     </row>
     <row r="167">
@@ -6737,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0.897529872285821</v>
+        <v>0.897529884479804</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0272780519988985</v>
+        <v>0.0272780526796164</v>
       </c>
       <c r="I167" t="e">
         <v>#NUM!</v>
@@ -6749,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>-3.55710682843572</v>
+        <v>-3.55710634097089</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0712427231102025</v>
+        <v>0.0712428552614698</v>
       </c>
     </row>
     <row r="168">
@@ -6775,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>1.07844757865757</v>
+        <v>1.07844759179727</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0145759855455604</v>
+        <v>0.0145759857569906</v>
       </c>
       <c r="I168" t="e">
         <v>#NUM!</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="K168" t="n">
-        <v>5.58776236080299</v>
+        <v>5.58776324929333</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0000043702679415886</v>
+        <v>0.00000437024558848459</v>
       </c>
     </row>
     <row r="169">
@@ -6813,10 +6813,10 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>1.20157290799803</v>
+        <v>1.20157290631312</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0372731185529547</v>
+        <v>0.0372731189808602</v>
       </c>
       <c r="I169" t="e">
         <v>#NUM!</v>
@@ -6825,10 +6825,10 @@
         <v>1</v>
       </c>
       <c r="K169" t="n">
-        <v>5.91972419136083</v>
+        <v>5.91972406989535</v>
       </c>
       <c r="L169" t="n">
-        <v>0.000000612715736495321</v>
+        <v>0.000000612716189003795</v>
       </c>
     </row>
     <row r="170">
@@ -6851,10 +6851,10 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0.894435449045768</v>
+        <v>0.894435447453475</v>
       </c>
       <c r="H170" t="n">
-        <v>0.0271693582971673</v>
+        <v>0.0271693583396785</v>
       </c>
       <c r="I170" t="e">
         <v>#NUM!</v>
@@ -6863,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.6727217509265</v>
+        <v>-3.67272179724783</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0455963417930172</v>
+        <v>0.0455963335250158</v>
       </c>
     </row>
     <row r="171">
@@ -6889,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.942252083509007</v>
+        <v>0.942252071137962</v>
       </c>
       <c r="H171" t="n">
-        <v>0.026437758129144</v>
+        <v>0.0264377578633179</v>
       </c>
       <c r="I171" t="e">
         <v>#NUM!</v>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.11997736842444</v>
+        <v>-2.11997782983763</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.877963820909688</v>
+        <v>0.877963822107777</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0267742956788332</v>
+        <v>0.0267742958305017</v>
       </c>
       <c r="I172" t="e">
         <v>#NUM!</v>
@@ -6939,10 +6939,10 @@
         <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.26778348294856</v>
+        <v>-4.26778341984901</v>
       </c>
       <c r="L172" t="n">
-        <v>0.00375107129518831</v>
+        <v>0.00375107235591949</v>
       </c>
     </row>
     <row r="173">
@@ -6965,10 +6965,10 @@
         <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1.0280151247601</v>
+        <v>1.02801512858623</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0288597711023373</v>
+        <v>0.0288597713175232</v>
       </c>
       <c r="I173" t="e">
         <v>#NUM!</v>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>0.984205112137539</v>
+        <v>0.984205241038462</v>
       </c>
       <c r="L173" t="n">
         <v>1</v>
@@ -7003,10 +7003,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="n">
-        <v>0.880450266225593</v>
+        <v>0.880450272020601</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0139250703045684</v>
+        <v>0.0139250703742894</v>
       </c>
       <c r="I174" t="e">
         <v>#NUM!</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>-8.05026776365131</v>
+        <v>-8.05026736017406</v>
       </c>
       <c r="L174" t="n">
-        <v>0.000000000000156964879033554</v>
+        <v>0.00000000000015696539651312</v>
       </c>
     </row>
     <row r="175">
@@ -7041,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>0.927519251011566</v>
+        <v>0.92751924658995</v>
       </c>
       <c r="H175" t="n">
-        <v>0.00993411966776113</v>
+        <v>0.00993411952856922</v>
       </c>
       <c r="I175" t="e">
         <v>#NUM!</v>
@@ -7053,10 +7053,10 @@
         <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.02509677514237</v>
+        <v>-7.02509728517873</v>
       </c>
       <c r="L175" t="n">
-        <v>0.000000000406444060610942</v>
+        <v>0.000000000406442575883582</v>
       </c>
     </row>
     <row r="176">
@@ -7079,10 +7079,10 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.864236184602316</v>
+        <v>0.864236193008492</v>
       </c>
       <c r="H176" t="n">
-        <v>0.013865610734387</v>
+        <v>0.013865610897162</v>
       </c>
       <c r="I176" t="e">
         <v>#NUM!</v>
@@ -7091,10 +7091,10 @@
         <v>1</v>
       </c>
       <c r="K176" t="n">
-        <v>-9.09444238600062</v>
+        <v>-9.09444176143492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0000000000000000180638823642793</v>
+        <v>0.0000000000000000180639861810286</v>
       </c>
     </row>
     <row r="177">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>1.01194132147222</v>
+        <v>1.01194133370046</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0108799292297951</v>
+        <v>0.0108799293109083</v>
       </c>
       <c r="I177" t="e">
         <v>#NUM!</v>
@@ -7129,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1.10408226785179</v>
+        <v>1.10408339688882</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7155,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.980970431639529</v>
+        <v>0.980970424768527</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0316823626406526</v>
+        <v>0.0316823627698316</v>
       </c>
       <c r="I178" t="e">
         <v>#NUM!</v>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="n">
-        <v>-0.594884503152826</v>
+        <v>-0.594884713432047</v>
       </c>
       <c r="L178" t="n">
         <v>1</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1.03341323743283</v>
+        <v>1.03341321846629</v>
       </c>
       <c r="H179" t="n">
-        <v>0.031136898775203</v>
+        <v>0.0311368985770118</v>
       </c>
       <c r="I179" t="e">
         <v>#NUM!</v>
@@ -7205,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="n">
-        <v>1.09083902004323</v>
+        <v>1.09083839783214</v>
       </c>
       <c r="L179" t="n">
         <v>1</v>
@@ -7231,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.962905203813759</v>
+        <v>0.962905200097478</v>
       </c>
       <c r="H180" t="n">
-        <v>0.031206048477114</v>
+        <v>0.0312060487272563</v>
       </c>
       <c r="I180" t="e">
         <v>#NUM!</v>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.16638015389769</v>
+        <v>-1.1663802591351</v>
       </c>
       <c r="L180" t="n">
         <v>1</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1.12747369499247</v>
+        <v>1.12747369329876</v>
       </c>
       <c r="H181" t="n">
-        <v>0.0339859949933538</v>
+        <v>0.0339859953695443</v>
       </c>
       <c r="I181" t="e">
         <v>#NUM!</v>
@@ -7281,10 +7281,10 @@
         <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>3.98027737826838</v>
+        <v>3.98027727839608</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0130786313787543</v>
+        <v>0.0130786368736592</v>
       </c>
     </row>
     <row r="182">
@@ -7307,10 +7307,10 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0.8164052510754</v>
+        <v>0.816405246501869</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0141496363703817</v>
+        <v>0.014149636361661</v>
       </c>
       <c r="I182" t="e">
         <v>#NUM!</v>
@@ -7319,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.7037104066204</v>
+        <v>-11.703710671495</v>
       </c>
       <c r="L182" t="n">
-        <v>0.00000000000000000000000000002317998343328</v>
+        <v>0.0000000000000000000000000000231799110578607</v>
       </c>
     </row>
     <row r="183">
@@ -7345,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>0.860050381091421</v>
+        <v>0.860050366512669</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0110443221964425</v>
+        <v>0.011044322064927</v>
       </c>
       <c r="I183" t="e">
         <v>#NUM!</v>
@@ -7357,10 +7357,10 @@
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.7404127587099</v>
+        <v>-11.7404140195245</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0000000000000000000000000000150288973662628</v>
+        <v>0.0000000000000000000000000000150286733115451</v>
       </c>
     </row>
     <row r="184">
@@ -7383,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0.801370601321297</v>
+        <v>0.801370599352176</v>
       </c>
       <c r="H184" t="n">
-        <v>0.014056992317451</v>
+        <v>0.0140569923930559</v>
       </c>
       <c r="I184" t="e">
         <v>#NUM!</v>
@@ -7395,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>-12.623533053617</v>
+        <v>-12.6235330947848</v>
       </c>
       <c r="L184" t="n">
-        <v>0.000000000000000000000000000000000297602913693488</v>
+        <v>0.000000000000000000000000000000000297602758075839</v>
       </c>
     </row>
     <row r="185">
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.938331488241511</v>
+        <v>0.938331488147717</v>
       </c>
       <c r="H185" t="n">
-        <v>0.0120814993512309</v>
+        <v>0.0120814994486129</v>
       </c>
       <c r="I185" t="e">
         <v>#NUM!</v>
@@ -7433,10 +7433,10 @@
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>-4.94364714071572</v>
+        <v>-4.94364710813713</v>
       </c>
       <c r="L185" t="n">
-        <v>0.000145681417227362</v>
+        <v>0.000145681441584382</v>
       </c>
     </row>
     <row r="186">
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1.05346012897214</v>
+        <v>1.05346011701641</v>
       </c>
       <c r="H186" t="n">
-        <v>0.0137454387465042</v>
+        <v>0.0137454385926696</v>
       </c>
       <c r="I186" t="e">
         <v>#NUM!</v>
@@ -7471,10 +7471,10 @@
         <v>1</v>
       </c>
       <c r="K186" t="n">
-        <v>3.99145618827971</v>
+        <v>3.99145531785566</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0124770760422276</v>
+        <v>0.0124771218454165</v>
       </c>
     </row>
     <row r="187">
@@ -7497,10 +7497,10 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.981584329921569</v>
+        <v>0.981584333008498</v>
       </c>
       <c r="H187" t="n">
-        <v>0.0173449507888231</v>
+        <v>0.0173449509319375</v>
       </c>
       <c r="I187" t="e">
         <v>#NUM!</v>
@@ -7509,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="K187" t="n">
-        <v>-1.05189407863323</v>
+        <v>-1.05189389528926</v>
       </c>
       <c r="L187" t="n">
         <v>1</v>
@@ -7535,10 +7535,10 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1.14934523878369</v>
+        <v>1.14934524510747</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0149606502544518</v>
+        <v>0.0149606503842491</v>
       </c>
       <c r="I188" t="e">
         <v>#NUM!</v>
@@ -7547,10 +7547,10 @@
         <v>1</v>
       </c>
       <c r="K188" t="n">
-        <v>10.6933953756554</v>
+        <v>10.6933957644108</v>
       </c>
       <c r="L188" t="n">
-        <v>0.00000000000000000000000207660545944933</v>
+        <v>0.00000000000000000000000207659675255054</v>
       </c>
     </row>
     <row r="189">
@@ -7573,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.931771694937617</v>
+        <v>0.931771708442579</v>
       </c>
       <c r="H189" t="n">
-        <v>0.0124292920895988</v>
+        <v>0.0124292923349277</v>
       </c>
       <c r="I189" t="e">
         <v>#NUM!</v>
@@ -7585,10 +7585,10 @@
         <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>-5.29764169524881</v>
+        <v>-5.29764058092429</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0000222884949346696</v>
+        <v>0.0000222886309123662</v>
       </c>
     </row>
     <row r="190">
@@ -7611,10 +7611,10 @@
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>1.09101921104988</v>
+        <v>1.09101922943474</v>
       </c>
       <c r="H190" t="n">
-        <v>0.00646051957573813</v>
+        <v>0.00646051966303547</v>
       </c>
       <c r="I190" t="e">
         <v>#NUM!</v>
@@ -7623,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>14.7110783366504</v>
+        <v>14.71108123149</v>
       </c>
       <c r="L190" t="n">
-        <v>0.000000000000000000000000000000000000000000000103983777044131</v>
+        <v>0.000000000000000000000000000000000000000000000103979328586724</v>
       </c>
     </row>
     <row r="191">
@@ -7649,10 +7649,10 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1.17090829972349</v>
+        <v>1.17090830248359</v>
       </c>
       <c r="H191" t="n">
-        <v>0.0155842762235852</v>
+        <v>0.0155842763879741</v>
       </c>
       <c r="I191" t="e">
         <v>#NUM!</v>
@@ -7661,10 +7661,10 @@
         <v>1</v>
       </c>
       <c r="K191" t="n">
-        <v>11.8546182137945</v>
+        <v>11.8546182937997</v>
       </c>
       <c r="L191" t="n">
-        <v>0.00000000000000000000000000000386935580687533</v>
+        <v>0.00000000000000000000000000000386935211130301</v>
       </c>
     </row>
   </sheetData>
